--- a/Talent and Weapon Level-Up Material Drops/data/talent_weapon_drops.xlsx
+++ b/Talent and Weapon Level-Up Material Drops/data/talent_weapon_drops.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="984" yWindow="0" windowWidth="19764" windowHeight="11172" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="984" yWindow="0" windowWidth="19764" windowHeight="11172" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Talent Drop Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Weapon Drop Data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Analysis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Analysis (Old)" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Talent Drop Data'!$A$1:$C$281</definedName>
@@ -21,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,6 +47,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <sz val="24"/>
     </font>
     <font>
@@ -60,7 +81,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
@@ -93,6 +114,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF7030A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF00B0F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF66FF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -137,24 +188,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,18 +558,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C237"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="230" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.6640625" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
-    <col width="6.88671875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="8.21875" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="8.6640625" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="6.88671875" bestFit="1" customWidth="1" style="15" min="2" max="2"/>
+    <col width="8.21875" bestFit="1" customWidth="1" style="15" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -529,7 +589,7 @@
         </is>
       </c>
     </row>
-    <row r="2" hidden="1" s="6">
+    <row r="2" hidden="1" s="15">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -540,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" hidden="1" s="6">
+    <row r="3" hidden="1" s="15">
       <c r="A3" t="n">
         <v>1</v>
       </c>
@@ -551,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" hidden="1" s="6">
+    <row r="4" hidden="1" s="15">
       <c r="A4" t="n">
         <v>0</v>
       </c>
@@ -562,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" hidden="1" s="6">
+    <row r="5" hidden="1" s="15">
       <c r="A5" t="n">
         <v>1</v>
       </c>
@@ -573,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" hidden="1" s="6">
+    <row r="6" hidden="1" s="15">
       <c r="A6" t="n">
         <v>0</v>
       </c>
@@ -584,7 +644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" hidden="1" s="6">
+    <row r="7" hidden="1" s="15">
       <c r="A7" t="n">
         <v>0</v>
       </c>
@@ -595,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" hidden="1" s="6">
+    <row r="8" hidden="1" s="15">
       <c r="A8" t="n">
         <v>0</v>
       </c>
@@ -606,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" hidden="1" s="6">
+    <row r="9" hidden="1" s="15">
       <c r="A9" t="n">
         <v>0</v>
       </c>
@@ -617,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" hidden="1" s="6">
+    <row r="10" hidden="1" s="15">
       <c r="A10" t="n">
         <v>0</v>
       </c>
@@ -628,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" hidden="1" s="6">
+    <row r="11" hidden="1" s="15">
       <c r="A11" t="n">
         <v>0</v>
       </c>
@@ -639,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" hidden="1" s="6">
+    <row r="12" hidden="1" s="15">
       <c r="A12" t="n">
         <v>0</v>
       </c>
@@ -650,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" hidden="1" s="6">
+    <row r="13" hidden="1" s="15">
       <c r="A13" t="n">
         <v>0</v>
       </c>
@@ -661,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" hidden="1" s="6">
+    <row r="14" hidden="1" s="15">
       <c r="A14" t="n">
         <v>1</v>
       </c>
@@ -672,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" hidden="1" s="6">
+    <row r="15" hidden="1" s="15">
       <c r="A15" t="n">
         <v>0</v>
       </c>
@@ -683,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" hidden="1" s="6">
+    <row r="16" hidden="1" s="15">
       <c r="A16" t="n">
         <v>0</v>
       </c>
@@ -694,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" hidden="1" s="6">
+    <row r="17" hidden="1" s="15">
       <c r="A17" t="n">
         <v>0</v>
       </c>
@@ -705,7 +765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" hidden="1" s="6">
+    <row r="18" hidden="1" s="15">
       <c r="A18" t="n">
         <v>0</v>
       </c>
@@ -716,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" hidden="1" s="6">
+    <row r="19" hidden="1" s="15">
       <c r="A19" t="n">
         <v>1</v>
       </c>
@@ -727,7 +787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" hidden="1" s="6">
+    <row r="20" hidden="1" s="15">
       <c r="A20" t="n">
         <v>0</v>
       </c>
@@ -738,7 +798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" hidden="1" s="6">
+    <row r="21" hidden="1" s="15">
       <c r="A21" t="n">
         <v>0</v>
       </c>
@@ -749,7 +809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" hidden="1" s="6">
+    <row r="22" hidden="1" s="15">
       <c r="A22" t="n">
         <v>0</v>
       </c>
@@ -760,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" hidden="1" s="6">
+    <row r="23" hidden="1" s="15">
       <c r="A23" t="n">
         <v>1</v>
       </c>
@@ -771,7 +831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" hidden="1" s="6">
+    <row r="24" hidden="1" s="15">
       <c r="A24" t="n">
         <v>0</v>
       </c>
@@ -782,7 +842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" hidden="1" s="6">
+    <row r="25" hidden="1" s="15">
       <c r="A25" t="n">
         <v>0</v>
       </c>
@@ -793,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" hidden="1" s="6">
+    <row r="26" hidden="1" s="15">
       <c r="A26" t="n">
         <v>0</v>
       </c>
@@ -804,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" hidden="1" s="6">
+    <row r="27" hidden="1" s="15">
       <c r="A27" t="n">
         <v>1</v>
       </c>
@@ -815,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" hidden="1" s="6">
+    <row r="28" hidden="1" s="15">
       <c r="A28" t="n">
         <v>0</v>
       </c>
@@ -826,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" hidden="1" s="6">
+    <row r="29" hidden="1" s="15">
       <c r="A29" t="n">
         <v>1</v>
       </c>
@@ -837,7 +897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" hidden="1" s="6">
+    <row r="30" hidden="1" s="15">
       <c r="A30" t="n">
         <v>2</v>
       </c>
@@ -848,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" hidden="1" s="6">
+    <row r="31" hidden="1" s="15">
       <c r="A31" t="n">
         <v>0</v>
       </c>
@@ -859,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" hidden="1" s="6">
+    <row r="32" hidden="1" s="15">
       <c r="A32" t="n">
         <v>1</v>
       </c>
@@ -870,7 +930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" hidden="1" s="6">
+    <row r="33" hidden="1" s="15">
       <c r="A33" t="n">
         <v>1</v>
       </c>
@@ -881,7 +941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" hidden="1" s="6">
+    <row r="34" hidden="1" s="15">
       <c r="A34" t="n">
         <v>0</v>
       </c>
@@ -892,7 +952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" hidden="1" s="6">
+    <row r="35" hidden="1" s="15">
       <c r="A35" t="n">
         <v>1</v>
       </c>
@@ -903,7 +963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" hidden="1" s="6">
+    <row r="36" hidden="1" s="15">
       <c r="A36" t="n">
         <v>0</v>
       </c>
@@ -914,7 +974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" hidden="1" s="6">
+    <row r="37" hidden="1" s="15">
       <c r="A37" t="n">
         <v>0</v>
       </c>
@@ -925,7 +985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" hidden="1" s="6">
+    <row r="38" hidden="1" s="15">
       <c r="A38" t="n">
         <v>0</v>
       </c>
@@ -936,7 +996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" hidden="1" s="6">
+    <row r="39" hidden="1" s="15">
       <c r="A39" t="n">
         <v>0</v>
       </c>
@@ -947,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" hidden="1" s="6">
+    <row r="40" hidden="1" s="15">
       <c r="A40" t="n">
         <v>0</v>
       </c>
@@ -958,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" hidden="1" s="6">
+    <row r="41" hidden="1" s="15">
       <c r="A41" t="n">
         <v>1</v>
       </c>
@@ -969,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" hidden="1" s="6">
+    <row r="42" hidden="1" s="15">
       <c r="A42" t="n">
         <v>0</v>
       </c>
@@ -980,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" hidden="1" s="6">
+    <row r="43" hidden="1" s="15">
       <c r="A43" t="n">
         <v>1</v>
       </c>
@@ -991,7 +1051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" hidden="1" s="6">
+    <row r="44" hidden="1" s="15">
       <c r="A44" t="n">
         <v>0</v>
       </c>
@@ -1002,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" hidden="1" s="6">
+    <row r="45" hidden="1" s="15">
       <c r="A45" t="n">
         <v>0</v>
       </c>
@@ -1013,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" hidden="1" s="6">
+    <row r="46" hidden="1" s="15">
       <c r="A46" t="n">
         <v>0</v>
       </c>
@@ -1024,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" hidden="1" s="6">
+    <row r="47" hidden="1" s="15">
       <c r="A47" t="n">
         <v>0</v>
       </c>
@@ -1035,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" hidden="1" s="6">
+    <row r="48" hidden="1" s="15">
       <c r="A48" t="n">
         <v>1</v>
       </c>
@@ -1046,7 +1106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" hidden="1" s="6">
+    <row r="49" hidden="1" s="15">
       <c r="A49" t="n">
         <v>0</v>
       </c>
@@ -1057,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" hidden="1" s="6">
+    <row r="50" hidden="1" s="15">
       <c r="A50" t="n">
         <v>0</v>
       </c>
@@ -1068,7 +1128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" hidden="1" s="6">
+    <row r="51" hidden="1" s="15">
       <c r="A51" t="n">
         <v>0</v>
       </c>
@@ -1079,7 +1139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" hidden="1" s="6">
+    <row r="52" hidden="1" s="15">
       <c r="A52" t="n">
         <v>0</v>
       </c>
@@ -1090,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" hidden="1" s="6">
+    <row r="53" hidden="1" s="15">
       <c r="A53" t="n">
         <v>0</v>
       </c>
@@ -1101,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" hidden="1" s="6">
+    <row r="54" hidden="1" s="15">
       <c r="A54" t="n">
         <v>0</v>
       </c>
@@ -1112,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" hidden="1" s="6">
+    <row r="55" hidden="1" s="15">
       <c r="A55" t="n">
         <v>1</v>
       </c>
@@ -1123,7 +1183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" hidden="1" s="6">
+    <row r="56" hidden="1" s="15">
       <c r="A56" t="n">
         <v>0</v>
       </c>
@@ -1134,7 +1194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" hidden="1" s="6">
+    <row r="57" hidden="1" s="15">
       <c r="A57" t="n">
         <v>0</v>
       </c>
@@ -1145,7 +1205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" hidden="1" s="6">
+    <row r="58" hidden="1" s="15">
       <c r="A58" t="n">
         <v>0</v>
       </c>
@@ -1156,7 +1216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" hidden="1" s="6">
+    <row r="59" hidden="1" s="15">
       <c r="A59" t="n">
         <v>0</v>
       </c>
@@ -1167,7 +1227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" hidden="1" s="6">
+    <row r="60" hidden="1" s="15">
       <c r="A60" t="n">
         <v>0</v>
       </c>
@@ -1178,7 +1238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" hidden="1" s="6">
+    <row r="61" hidden="1" s="15">
       <c r="A61" t="n">
         <v>1</v>
       </c>
@@ -1189,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" hidden="1" s="6">
+    <row r="62" hidden="1" s="15">
       <c r="A62" t="n">
         <v>1</v>
       </c>
@@ -1200,7 +1260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" hidden="1" s="6">
+    <row r="63" hidden="1" s="15">
       <c r="A63" t="n">
         <v>0</v>
       </c>
@@ -1211,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" hidden="1" s="6">
+    <row r="64" hidden="1" s="15">
       <c r="A64" t="n">
         <v>0</v>
       </c>
@@ -1222,7 +1282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" hidden="1" s="6">
+    <row r="65" hidden="1" s="15">
       <c r="A65" t="n">
         <v>0</v>
       </c>
@@ -1233,7 +1293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" hidden="1" s="6">
+    <row r="66" hidden="1" s="15">
       <c r="A66" t="n">
         <v>0</v>
       </c>
@@ -1244,7 +1304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" hidden="1" s="6">
+    <row r="67" hidden="1" s="15">
       <c r="A67" t="n">
         <v>0</v>
       </c>
@@ -1255,7 +1315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" hidden="1" s="6">
+    <row r="68" hidden="1" s="15">
       <c r="A68" t="n">
         <v>0</v>
       </c>
@@ -1266,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" hidden="1" s="6">
+    <row r="69" hidden="1" s="15">
       <c r="A69" t="n">
         <v>0</v>
       </c>
@@ -1277,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" hidden="1" s="6">
+    <row r="70" hidden="1" s="15">
       <c r="A70" t="n">
         <v>0</v>
       </c>
@@ -1288,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" hidden="1" s="6">
+    <row r="71" hidden="1" s="15">
       <c r="A71" t="n">
         <v>0</v>
       </c>
@@ -1299,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" hidden="1" s="6">
+    <row r="72" hidden="1" s="15">
       <c r="A72" t="n">
         <v>0</v>
       </c>
@@ -1310,7 +1370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" hidden="1" s="6">
+    <row r="73" hidden="1" s="15">
       <c r="A73" t="n">
         <v>0</v>
       </c>
@@ -1321,7 +1381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" hidden="1" s="6">
+    <row r="74" hidden="1" s="15">
       <c r="A74" t="n">
         <v>0</v>
       </c>
@@ -1332,7 +1392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" hidden="1" s="6">
+    <row r="75" hidden="1" s="15">
       <c r="A75" t="n">
         <v>0</v>
       </c>
@@ -1343,7 +1403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" hidden="1" s="6">
+    <row r="76" hidden="1" s="15">
       <c r="A76" t="n">
         <v>1</v>
       </c>
@@ -1354,7 +1414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" hidden="1" s="6">
+    <row r="77" hidden="1" s="15">
       <c r="A77" t="n">
         <v>0</v>
       </c>
@@ -1365,7 +1425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" hidden="1" s="6">
+    <row r="78" hidden="1" s="15">
       <c r="A78" t="n">
         <v>0</v>
       </c>
@@ -1376,7 +1436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" hidden="1" s="6">
+    <row r="79" hidden="1" s="15">
       <c r="A79" t="n">
         <v>0</v>
       </c>
@@ -1387,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" hidden="1" s="6">
+    <row r="80" hidden="1" s="15">
       <c r="A80" t="n">
         <v>0</v>
       </c>
@@ -1398,7 +1458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" hidden="1" s="6">
+    <row r="81" hidden="1" s="15">
       <c r="A81" t="n">
         <v>1</v>
       </c>
@@ -1409,7 +1469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" hidden="1" s="6">
+    <row r="82" hidden="1" s="15">
       <c r="A82" t="n">
         <v>2</v>
       </c>
@@ -1420,7 +1480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" hidden="1" s="6">
+    <row r="83" hidden="1" s="15">
       <c r="A83" t="n">
         <v>0</v>
       </c>
@@ -1431,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" hidden="1" s="6">
+    <row r="84" hidden="1" s="15">
       <c r="A84" t="n">
         <v>0</v>
       </c>
@@ -1442,7 +1502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" hidden="1" s="6">
+    <row r="85" hidden="1" s="15">
       <c r="A85" t="n">
         <v>1</v>
       </c>
@@ -1453,7 +1513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" hidden="1" s="6">
+    <row r="86" hidden="1" s="15">
       <c r="A86" t="n">
         <v>0</v>
       </c>
@@ -1464,7 +1524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" hidden="1" s="6">
+    <row r="87" hidden="1" s="15">
       <c r="A87" t="n">
         <v>0</v>
       </c>
@@ -1475,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" hidden="1" s="6">
+    <row r="88" hidden="1" s="15">
       <c r="A88" t="n">
         <v>2</v>
       </c>
@@ -1486,7 +1546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" hidden="1" s="6">
+    <row r="89" hidden="1" s="15">
       <c r="A89" t="n">
         <v>0</v>
       </c>
@@ -1497,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" hidden="1" s="6">
+    <row r="90" hidden="1" s="15">
       <c r="A90" t="n">
         <v>1</v>
       </c>
@@ -1508,7 +1568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" hidden="1" s="6">
+    <row r="91" hidden="1" s="15">
       <c r="A91" t="n">
         <v>0</v>
       </c>
@@ -1519,7 +1579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" hidden="1" s="6">
+    <row r="92" hidden="1" s="15">
       <c r="A92" t="n">
         <v>0</v>
       </c>
@@ -1530,7 +1590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" hidden="1" s="6">
+    <row r="93" hidden="1" s="15">
       <c r="A93" t="n">
         <v>0</v>
       </c>
@@ -1541,7 +1601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" hidden="1" s="6">
+    <row r="94" hidden="1" s="15">
       <c r="A94" t="n">
         <v>0</v>
       </c>
@@ -1552,7 +1612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" hidden="1" s="6">
+    <row r="95" hidden="1" s="15">
       <c r="A95" t="n">
         <v>0</v>
       </c>
@@ -1563,7 +1623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" hidden="1" s="6">
+    <row r="96" hidden="1" s="15">
       <c r="A96" t="n">
         <v>0</v>
       </c>
@@ -1574,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" hidden="1" s="6">
+    <row r="97" hidden="1" s="15">
       <c r="A97" t="n">
         <v>1</v>
       </c>
@@ -1585,7 +1645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" hidden="1" s="6">
+    <row r="98" hidden="1" s="15">
       <c r="A98" t="n">
         <v>0</v>
       </c>
@@ -1596,7 +1656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" hidden="1" s="6">
+    <row r="99" hidden="1" s="15">
       <c r="A99" t="n">
         <v>0</v>
       </c>
@@ -1607,7 +1667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" hidden="1" s="6">
+    <row r="100" hidden="1" s="15">
       <c r="A100" t="n">
         <v>0</v>
       </c>
@@ -1618,7 +1678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" hidden="1" s="6">
+    <row r="101" hidden="1" s="15">
       <c r="A101" t="n">
         <v>0</v>
       </c>
@@ -1629,7 +1689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" hidden="1" s="6">
+    <row r="102" hidden="1" s="15">
       <c r="A102" t="n">
         <v>0</v>
       </c>
@@ -1640,7 +1700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" hidden="1" s="6">
+    <row r="103" hidden="1" s="15">
       <c r="A103" t="n">
         <v>0</v>
       </c>
@@ -1651,7 +1711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" hidden="1" s="6">
+    <row r="104" hidden="1" s="15">
       <c r="A104" t="n">
         <v>0</v>
       </c>
@@ -1662,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" hidden="1" s="6">
+    <row r="105" hidden="1" s="15">
       <c r="A105" t="n">
         <v>0</v>
       </c>
@@ -1673,7 +1733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" hidden="1" s="6">
+    <row r="106" hidden="1" s="15">
       <c r="A106" t="n">
         <v>0</v>
       </c>
@@ -1684,7 +1744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" hidden="1" s="6">
+    <row r="107" hidden="1" s="15">
       <c r="A107" t="n">
         <v>0</v>
       </c>
@@ -1695,7 +1755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" hidden="1" s="6">
+    <row r="108" hidden="1" s="15">
       <c r="A108" t="n">
         <v>1</v>
       </c>
@@ -1706,7 +1766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" hidden="1" s="6">
+    <row r="109" hidden="1" s="15">
       <c r="A109" t="n">
         <v>0</v>
       </c>
@@ -1717,7 +1777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" hidden="1" s="6">
+    <row r="110" hidden="1" s="15">
       <c r="A110" t="n">
         <v>0</v>
       </c>
@@ -1728,7 +1788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" hidden="1" s="6">
+    <row r="111" hidden="1" s="15">
       <c r="A111" t="n">
         <v>0</v>
       </c>
@@ -1739,7 +1799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" hidden="1" s="6">
+    <row r="112" hidden="1" s="15">
       <c r="A112" t="n">
         <v>0</v>
       </c>
@@ -1750,7 +1810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" hidden="1" s="6">
+    <row r="113" hidden="1" s="15">
       <c r="A113" t="n">
         <v>0</v>
       </c>
@@ -1761,7 +1821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" hidden="1" s="6">
+    <row r="114" hidden="1" s="15">
       <c r="A114" t="n">
         <v>0</v>
       </c>
@@ -1772,7 +1832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" hidden="1" s="6">
+    <row r="115" hidden="1" s="15">
       <c r="A115" t="n">
         <v>0</v>
       </c>
@@ -1783,7 +1843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" hidden="1" s="6">
+    <row r="116" hidden="1" s="15">
       <c r="A116" t="n">
         <v>0</v>
       </c>
@@ -1794,7 +1854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" hidden="1" s="6">
+    <row r="117" hidden="1" s="15">
       <c r="A117" t="n">
         <v>0</v>
       </c>
@@ -1805,7 +1865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" hidden="1" s="6">
+    <row r="118" hidden="1" s="15">
       <c r="A118" t="n">
         <v>0</v>
       </c>
@@ -1816,7 +1876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" hidden="1" s="6">
+    <row r="119" hidden="1" s="15">
       <c r="A119" t="n">
         <v>1</v>
       </c>
@@ -1827,7 +1887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" hidden="1" s="6">
+    <row r="120" hidden="1" s="15">
       <c r="A120" t="n">
         <v>0</v>
       </c>
@@ -1838,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" hidden="1" s="6">
+    <row r="121" hidden="1" s="15">
       <c r="A121" t="n">
         <v>0</v>
       </c>
@@ -1849,7 +1909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" hidden="1" s="6">
+    <row r="122" hidden="1" s="15">
       <c r="A122" t="n">
         <v>1</v>
       </c>
@@ -1860,7 +1920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" hidden="1" s="6">
+    <row r="123" hidden="1" s="15">
       <c r="A123" t="n">
         <v>0</v>
       </c>
@@ -1871,7 +1931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" hidden="1" s="6">
+    <row r="124" hidden="1" s="15">
       <c r="A124" t="n">
         <v>0</v>
       </c>
@@ -1882,7 +1942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" hidden="1" s="6">
+    <row r="125" hidden="1" s="15">
       <c r="A125" t="n">
         <v>0</v>
       </c>
@@ -1893,7 +1953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" hidden="1" s="6">
+    <row r="126" hidden="1" s="15">
       <c r="A126" t="n">
         <v>1</v>
       </c>
@@ -1904,7 +1964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" hidden="1" s="6">
+    <row r="127" hidden="1" s="15">
       <c r="A127" t="n">
         <v>1</v>
       </c>
@@ -1915,7 +1975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" hidden="1" s="6">
+    <row r="128" hidden="1" s="15">
       <c r="A128" t="n">
         <v>1</v>
       </c>
@@ -1926,7 +1986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" hidden="1" s="6">
+    <row r="129" hidden="1" s="15">
       <c r="A129" t="n">
         <v>1</v>
       </c>
@@ -1937,7 +1997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" hidden="1" s="6">
+    <row r="130" hidden="1" s="15">
       <c r="A130" t="n">
         <v>0</v>
       </c>
@@ -1948,7 +2008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" hidden="1" s="6">
+    <row r="131" hidden="1" s="15">
       <c r="A131" t="n">
         <v>0</v>
       </c>
@@ -1959,7 +2019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" hidden="1" s="6">
+    <row r="132" hidden="1" s="15">
       <c r="A132" t="n">
         <v>0</v>
       </c>
@@ -1970,7 +2030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" hidden="1" s="6">
+    <row r="133" hidden="1" s="15">
       <c r="A133" t="n">
         <v>0</v>
       </c>
@@ -1981,7 +2041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" hidden="1" s="6">
+    <row r="134" hidden="1" s="15">
       <c r="A134" t="n">
         <v>0</v>
       </c>
@@ -1992,7 +2052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" hidden="1" s="6">
+    <row r="135" hidden="1" s="15">
       <c r="A135" t="n">
         <v>0</v>
       </c>
@@ -2003,7 +2063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" hidden="1" s="6">
+    <row r="136" hidden="1" s="15">
       <c r="A136" t="n">
         <v>0</v>
       </c>
@@ -2014,7 +2074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" hidden="1" s="6">
+    <row r="137" hidden="1" s="15">
       <c r="A137" t="n">
         <v>0</v>
       </c>
@@ -2025,7 +2085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" hidden="1" s="6">
+    <row r="138" hidden="1" s="15">
       <c r="A138" t="n">
         <v>0</v>
       </c>
@@ -2036,7 +2096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" hidden="1" s="6">
+    <row r="139" hidden="1" s="15">
       <c r="A139" t="n">
         <v>0</v>
       </c>
@@ -2047,7 +2107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" hidden="1" s="6">
+    <row r="140" hidden="1" s="15">
       <c r="A140" t="n">
         <v>1</v>
       </c>
@@ -2058,7 +2118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" hidden="1" s="6">
+    <row r="141" hidden="1" s="15">
       <c r="A141" t="n">
         <v>0</v>
       </c>
@@ -2069,7 +2129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" hidden="1" s="6">
+    <row r="142" hidden="1" s="15">
       <c r="A142" t="n">
         <v>0</v>
       </c>
@@ -2080,7 +2140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" hidden="1" s="6">
+    <row r="143" hidden="1" s="15">
       <c r="A143" t="n">
         <v>1</v>
       </c>
@@ -2091,7 +2151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" hidden="1" s="6">
+    <row r="144" hidden="1" s="15">
       <c r="A144" t="n">
         <v>0</v>
       </c>
@@ -2102,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" hidden="1" s="6">
+    <row r="145" hidden="1" s="15">
       <c r="A145" t="n">
         <v>1</v>
       </c>
@@ -2113,7 +2173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" hidden="1" s="6">
+    <row r="146" hidden="1" s="15">
       <c r="A146" t="n">
         <v>0</v>
       </c>
@@ -2124,7 +2184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" hidden="1" s="6">
+    <row r="147" hidden="1" s="15">
       <c r="A147" t="n">
         <v>0</v>
       </c>
@@ -2135,7 +2195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" hidden="1" s="6">
+    <row r="148" hidden="1" s="15">
       <c r="A148" t="n">
         <v>0</v>
       </c>
@@ -2146,7 +2206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" hidden="1" s="6">
+    <row r="149" hidden="1" s="15">
       <c r="A149" t="n">
         <v>0</v>
       </c>
@@ -2157,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" hidden="1" s="6">
+    <row r="150" hidden="1" s="15">
       <c r="A150" t="n">
         <v>0</v>
       </c>
@@ -2168,7 +2228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" hidden="1" s="6">
+    <row r="151" hidden="1" s="15">
       <c r="A151" t="n">
         <v>0</v>
       </c>
@@ -2179,7 +2239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" hidden="1" s="6">
+    <row r="152" hidden="1" s="15">
       <c r="A152" t="n">
         <v>0</v>
       </c>
@@ -2190,7 +2250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" hidden="1" s="6">
+    <row r="153" hidden="1" s="15">
       <c r="A153" t="n">
         <v>0</v>
       </c>
@@ -2201,7 +2261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" hidden="1" s="6">
+    <row r="154" hidden="1" s="15">
       <c r="A154" t="n">
         <v>1</v>
       </c>
@@ -2212,7 +2272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" hidden="1" s="6">
+    <row r="155" hidden="1" s="15">
       <c r="A155" t="n">
         <v>0</v>
       </c>
@@ -2223,7 +2283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" hidden="1" s="6">
+    <row r="156" hidden="1" s="15">
       <c r="A156" t="n">
         <v>0</v>
       </c>
@@ -2234,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" hidden="1" s="6">
+    <row r="157" hidden="1" s="15">
       <c r="A157" t="n">
         <v>0</v>
       </c>
@@ -2245,7 +2305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" hidden="1" s="6">
+    <row r="158" hidden="1" s="15">
       <c r="A158" t="n">
         <v>0</v>
       </c>
@@ -2256,7 +2316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" hidden="1" s="6">
+    <row r="159" hidden="1" s="15">
       <c r="A159" t="n">
         <v>0</v>
       </c>
@@ -2267,7 +2327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" hidden="1" s="6">
+    <row r="160" hidden="1" s="15">
       <c r="A160" t="n">
         <v>0</v>
       </c>
@@ -2278,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" hidden="1" s="6">
+    <row r="161" hidden="1" s="15">
       <c r="A161" t="n">
         <v>0</v>
       </c>
@@ -2289,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" hidden="1" s="6">
+    <row r="162" hidden="1" s="15">
       <c r="A162" t="n">
         <v>0</v>
       </c>
@@ -2300,7 +2360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" hidden="1" s="6">
+    <row r="163" hidden="1" s="15">
       <c r="A163" t="n">
         <v>1</v>
       </c>
@@ -2311,7 +2371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" hidden="1" s="6">
+    <row r="164" hidden="1" s="15">
       <c r="A164" t="n">
         <v>0</v>
       </c>
@@ -2322,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" hidden="1" s="6">
+    <row r="165" hidden="1" s="15">
       <c r="A165" t="n">
         <v>0</v>
       </c>
@@ -2333,7 +2393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" hidden="1" s="6">
+    <row r="166" hidden="1" s="15">
       <c r="A166" t="n">
         <v>0</v>
       </c>
@@ -2344,7 +2404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" hidden="1" s="6">
+    <row r="167" hidden="1" s="15">
       <c r="A167" t="n">
         <v>0</v>
       </c>
@@ -2355,7 +2415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" hidden="1" s="6">
+    <row r="168" hidden="1" s="15">
       <c r="A168" t="n">
         <v>0</v>
       </c>
@@ -2366,7 +2426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" hidden="1" s="6">
+    <row r="169" hidden="1" s="15">
       <c r="A169" t="n">
         <v>0</v>
       </c>
@@ -2377,7 +2437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" hidden="1" s="6">
+    <row r="170" hidden="1" s="15">
       <c r="A170" t="n">
         <v>0</v>
       </c>
@@ -2388,7 +2448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" hidden="1" s="6">
+    <row r="171" hidden="1" s="15">
       <c r="A171" t="n">
         <v>0</v>
       </c>
@@ -2399,7 +2459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" hidden="1" s="6">
+    <row r="172" hidden="1" s="15">
       <c r="A172" t="n">
         <v>0</v>
       </c>
@@ -2410,7 +2470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" hidden="1" s="6">
+    <row r="173" hidden="1" s="15">
       <c r="A173" t="n">
         <v>0</v>
       </c>
@@ -2421,7 +2481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" hidden="1" s="6">
+    <row r="174" hidden="1" s="15">
       <c r="A174" t="n">
         <v>0</v>
       </c>
@@ -2432,7 +2492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" hidden="1" s="6">
+    <row r="175" hidden="1" s="15">
       <c r="A175" t="n">
         <v>0</v>
       </c>
@@ -2443,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" hidden="1" s="6">
+    <row r="176" hidden="1" s="15">
       <c r="A176" t="n">
         <v>0</v>
       </c>
@@ -2454,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" hidden="1" s="6">
+    <row r="177" hidden="1" s="15">
       <c r="A177" t="n">
         <v>0</v>
       </c>
@@ -2465,7 +2525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" hidden="1" s="6">
+    <row r="178" hidden="1" s="15">
       <c r="A178" t="n">
         <v>0</v>
       </c>
@@ -2476,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" hidden="1" s="6">
+    <row r="179" hidden="1" s="15">
       <c r="A179" t="n">
         <v>0</v>
       </c>
@@ -2487,7 +2547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" hidden="1" s="6">
+    <row r="180" hidden="1" s="15">
       <c r="A180" t="n">
         <v>0</v>
       </c>
@@ -2498,7 +2558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" hidden="1" s="6">
+    <row r="181" hidden="1" s="15">
       <c r="A181" t="n">
         <v>0</v>
       </c>
@@ -2509,7 +2569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" hidden="1" s="6">
+    <row r="182" hidden="1" s="15">
       <c r="A182" t="n">
         <v>0</v>
       </c>
@@ -2520,7 +2580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" hidden="1" s="6">
+    <row r="183" hidden="1" s="15">
       <c r="A183" t="n">
         <v>0</v>
       </c>
@@ -2531,7 +2591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" hidden="1" s="6">
+    <row r="184" hidden="1" s="15">
       <c r="A184" t="n">
         <v>0</v>
       </c>
@@ -2542,7 +2602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" hidden="1" s="6">
+    <row r="185" hidden="1" s="15">
       <c r="A185" t="n">
         <v>0</v>
       </c>
@@ -2553,7 +2613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" hidden="1" s="6">
+    <row r="186" hidden="1" s="15">
       <c r="A186" t="n">
         <v>1</v>
       </c>
@@ -2564,7 +2624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" hidden="1" s="6">
+    <row r="187" hidden="1" s="15">
       <c r="A187" t="n">
         <v>0</v>
       </c>
@@ -2575,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" hidden="1" s="6">
+    <row r="188" hidden="1" s="15">
       <c r="A188" t="n">
         <v>0</v>
       </c>
@@ -2586,7 +2646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" hidden="1" s="6">
+    <row r="189" hidden="1" s="15">
       <c r="A189" t="n">
         <v>0</v>
       </c>
@@ -2597,7 +2657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" hidden="1" s="6">
+    <row r="190" hidden="1" s="15">
       <c r="A190" t="n">
         <v>1</v>
       </c>
@@ -2608,7 +2668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" hidden="1" s="6">
+    <row r="191" hidden="1" s="15">
       <c r="A191" t="n">
         <v>0</v>
       </c>
@@ -2619,7 +2679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" hidden="1" s="6">
+    <row r="192" hidden="1" s="15">
       <c r="A192" t="n">
         <v>0</v>
       </c>
@@ -2630,7 +2690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" hidden="1" s="6">
+    <row r="193" hidden="1" s="15">
       <c r="A193" t="n">
         <v>0</v>
       </c>
@@ -2641,7 +2701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" hidden="1" s="6">
+    <row r="194" hidden="1" s="15">
       <c r="A194" t="n">
         <v>0</v>
       </c>
@@ -2652,7 +2712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" hidden="1" s="6">
+    <row r="195" hidden="1" s="15">
       <c r="A195" t="n">
         <v>0</v>
       </c>
@@ -2663,7 +2723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" hidden="1" s="6">
+    <row r="196" hidden="1" s="15">
       <c r="A196" t="n">
         <v>0</v>
       </c>
@@ -2674,7 +2734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" hidden="1" s="6">
+    <row r="197" hidden="1" s="15">
       <c r="A197" t="n">
         <v>1</v>
       </c>
@@ -2685,7 +2745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" hidden="1" s="6">
+    <row r="198" hidden="1" s="15">
       <c r="A198" t="n">
         <v>0</v>
       </c>
@@ -2696,7 +2756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" hidden="1" s="6">
+    <row r="199" hidden="1" s="15">
       <c r="A199" t="n">
         <v>0</v>
       </c>
@@ -2707,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" hidden="1" s="6">
+    <row r="200" hidden="1" s="15">
       <c r="A200" t="n">
         <v>0</v>
       </c>
@@ -2718,7 +2778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" hidden="1" s="6">
+    <row r="201" hidden="1" s="15">
       <c r="A201" t="n">
         <v>0</v>
       </c>
@@ -2729,7 +2789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" hidden="1" s="6">
+    <row r="202" hidden="1" s="15">
       <c r="A202" t="n">
         <v>1</v>
       </c>
@@ -2740,7 +2800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" hidden="1" s="6">
+    <row r="203" hidden="1" s="15">
       <c r="A203" t="n">
         <v>0</v>
       </c>
@@ -2751,7 +2811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" hidden="1" s="6">
+    <row r="204" hidden="1" s="15">
       <c r="A204" t="n">
         <v>0</v>
       </c>
@@ -2762,7 +2822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" hidden="1" s="6">
+    <row r="205" hidden="1" s="15">
       <c r="A205" t="n">
         <v>0</v>
       </c>
@@ -2773,7 +2833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" hidden="1" s="6">
+    <row r="206" hidden="1" s="15">
       <c r="A206" t="n">
         <v>0</v>
       </c>
@@ -2784,7 +2844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" hidden="1" s="6">
+    <row r="207" hidden="1" s="15">
       <c r="A207" t="n">
         <v>1</v>
       </c>
@@ -2795,7 +2855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" hidden="1" s="6">
+    <row r="208" hidden="1" s="15">
       <c r="A208" t="n">
         <v>0</v>
       </c>
@@ -2806,7 +2866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" hidden="1" s="6">
+    <row r="209" hidden="1" s="15">
       <c r="A209" t="n">
         <v>0</v>
       </c>
@@ -2817,7 +2877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" hidden="1" s="6">
+    <row r="210" hidden="1" s="15">
       <c r="A210" t="n">
         <v>0</v>
       </c>
@@ -2828,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" hidden="1" s="6">
+    <row r="211" hidden="1" s="15">
       <c r="A211" t="n">
         <v>1</v>
       </c>
@@ -2839,7 +2899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" hidden="1" s="6">
+    <row r="212" hidden="1" s="15">
       <c r="A212" t="n">
         <v>0</v>
       </c>
@@ -2850,7 +2910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" hidden="1" s="6">
+    <row r="213" hidden="1" s="15">
       <c r="A213" t="n">
         <v>0</v>
       </c>
@@ -2861,7 +2921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" hidden="1" s="6">
+    <row r="214" hidden="1" s="15">
       <c r="A214" t="n">
         <v>0</v>
       </c>
@@ -2872,7 +2932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" hidden="1" s="6">
+    <row r="215" hidden="1" s="15">
       <c r="A215" t="n">
         <v>0</v>
       </c>
@@ -2883,7 +2943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" hidden="1" s="6">
+    <row r="216" hidden="1" s="15">
       <c r="A216" t="n">
         <v>0</v>
       </c>
@@ -2894,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" hidden="1" s="6">
+    <row r="217" hidden="1" s="15">
       <c r="A217" t="n">
         <v>0</v>
       </c>
@@ -2905,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" hidden="1" s="6">
+    <row r="218" hidden="1" s="15">
       <c r="A218" t="n">
         <v>0</v>
       </c>
@@ -2916,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" hidden="1" s="6">
+    <row r="219" hidden="1" s="15">
       <c r="A219" t="n">
         <v>0</v>
       </c>
@@ -2927,7 +2987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" hidden="1" s="6">
+    <row r="220" hidden="1" s="15">
       <c r="A220" t="n">
         <v>0</v>
       </c>
@@ -2938,7 +2998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" hidden="1" s="6">
+    <row r="221" hidden="1" s="15">
       <c r="A221" t="n">
         <v>0</v>
       </c>
@@ -2949,7 +3009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" hidden="1" s="6">
+    <row r="222" hidden="1" s="15">
       <c r="A222" t="n">
         <v>0</v>
       </c>
@@ -2960,7 +3020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" hidden="1" s="6">
+    <row r="223" hidden="1" s="15">
       <c r="A223" t="n">
         <v>1</v>
       </c>
@@ -2971,7 +3031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" hidden="1" s="6">
+    <row r="224" hidden="1" s="15">
       <c r="A224" t="n">
         <v>0</v>
       </c>
@@ -2982,7 +3042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" hidden="1" s="6">
+    <row r="225" hidden="1" s="15">
       <c r="A225" t="n">
         <v>0</v>
       </c>
@@ -2993,7 +3053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" hidden="1" s="6">
+    <row r="226" hidden="1" s="15">
       <c r="A226" t="n">
         <v>0</v>
       </c>
@@ -3004,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" hidden="1" s="6">
+    <row r="227" hidden="1" s="15">
       <c r="A227" t="n">
         <v>0</v>
       </c>
@@ -3015,7 +3075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" hidden="1" s="6">
+    <row r="228" hidden="1" s="15">
       <c r="A228" t="n">
         <v>0</v>
       </c>
@@ -3026,7 +3086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" hidden="1" s="6">
+    <row r="229" hidden="1" s="15">
       <c r="A229" t="n">
         <v>0</v>
       </c>
@@ -3037,7 +3097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" hidden="1" s="6">
+    <row r="230" hidden="1" s="15">
       <c r="A230" t="n">
         <v>1</v>
       </c>
@@ -3048,7 +3108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" hidden="1" s="6">
+    <row r="231" hidden="1" s="15">
       <c r="A231" t="n">
         <v>0</v>
       </c>
@@ -3059,7 +3119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" hidden="1" s="6">
+    <row r="232" hidden="1" s="15">
       <c r="A232" t="n">
         <v>1</v>
       </c>
@@ -3070,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" hidden="1" s="6">
+    <row r="233" hidden="1" s="15">
       <c r="A233" t="n">
         <v>1</v>
       </c>
@@ -3081,7 +3141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" hidden="1" s="6">
+    <row r="234" hidden="1" s="15">
       <c r="A234" t="n">
         <v>1</v>
       </c>
@@ -3092,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" hidden="1" s="6">
+    <row r="235" hidden="1" s="15">
       <c r="A235" t="n">
         <v>1</v>
       </c>
@@ -3103,7 +3163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" hidden="1" s="6">
+    <row r="236" hidden="1" s="15">
       <c r="A236" t="n">
         <v>0</v>
       </c>
@@ -3114,7 +3174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" hidden="1" s="6">
+    <row r="237" hidden="1" s="15">
       <c r="A237" t="n">
         <v>0</v>
       </c>
@@ -3123,6 +3183,105 @@
       </c>
       <c r="C237" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="238" hidden="1" s="15">
+      <c r="A238" t="n">
+        <v>0</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2</v>
+      </c>
+      <c r="C238" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" hidden="1" s="15">
+      <c r="A239" t="n">
+        <v>0</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" hidden="1" s="15">
+      <c r="A240" t="n">
+        <v>0</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" hidden="1" s="15">
+      <c r="A241" t="n">
+        <v>0</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" hidden="1" s="15">
+      <c r="A242" t="n">
+        <v>0</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2</v>
+      </c>
+      <c r="C242" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" hidden="1" s="15">
+      <c r="A243" t="n">
+        <v>0</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2</v>
+      </c>
+      <c r="C243" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" hidden="1" s="15">
+      <c r="A244" t="n">
+        <v>0</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3</v>
+      </c>
+      <c r="C244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" hidden="1" s="15">
+      <c r="A245" t="n">
+        <v>0</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2</v>
+      </c>
+      <c r="C245" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" hidden="1" s="15">
+      <c r="A246" t="n">
+        <v>0</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2</v>
+      </c>
+      <c r="C246" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3140,17 +3299,17 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="52" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="7.109375" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
-    <col width="8.6640625" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="6.88671875" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="8.21875" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="7.109375" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="8.6640625" bestFit="1" customWidth="1" style="15" min="2" max="2"/>
+    <col width="6.88671875" bestFit="1" customWidth="1" style="15" min="3" max="3"/>
+    <col width="8.21875" bestFit="1" customWidth="1" style="15" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -3175,7 +3334,7 @@
         </is>
       </c>
     </row>
-    <row r="2" hidden="1" s="6">
+    <row r="2" hidden="1" s="15">
       <c r="A2" t="n">
         <v>0</v>
       </c>
@@ -3189,7 +3348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" hidden="1" s="6">
+    <row r="3" hidden="1" s="15">
       <c r="A3" t="n">
         <v>0</v>
       </c>
@@ -3203,7 +3362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" hidden="1" s="6">
+    <row r="4" hidden="1" s="15">
       <c r="A4" t="n">
         <v>0</v>
       </c>
@@ -3217,7 +3376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" hidden="1" s="6">
+    <row r="5" hidden="1" s="15">
       <c r="A5" t="n">
         <v>0</v>
       </c>
@@ -3231,7 +3390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" hidden="1" s="6">
+    <row r="6" hidden="1" s="15">
       <c r="A6" t="n">
         <v>0</v>
       </c>
@@ -3245,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" hidden="1" s="6">
+    <row r="7" hidden="1" s="15">
       <c r="A7" t="n">
         <v>0</v>
       </c>
@@ -3259,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" hidden="1" s="6">
+    <row r="8" hidden="1" s="15">
       <c r="A8" t="n">
         <v>0</v>
       </c>
@@ -3273,7 +3432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" hidden="1" s="6">
+    <row r="9" hidden="1" s="15">
       <c r="A9" t="n">
         <v>0</v>
       </c>
@@ -3287,7 +3446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" hidden="1" s="6">
+    <row r="10" hidden="1" s="15">
       <c r="A10" t="n">
         <v>0</v>
       </c>
@@ -3301,7 +3460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" hidden="1" s="6">
+    <row r="11" hidden="1" s="15">
       <c r="A11" t="n">
         <v>0</v>
       </c>
@@ -3315,7 +3474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" hidden="1" s="6">
+    <row r="12" hidden="1" s="15">
       <c r="A12" t="n">
         <v>0</v>
       </c>
@@ -3329,7 +3488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" hidden="1" s="6">
+    <row r="13" hidden="1" s="15">
       <c r="A13" t="n">
         <v>0</v>
       </c>
@@ -3343,7 +3502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" hidden="1" s="6">
+    <row r="14" hidden="1" s="15">
       <c r="A14" t="n">
         <v>0</v>
       </c>
@@ -3357,7 +3516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" hidden="1" s="6">
+    <row r="15" hidden="1" s="15">
       <c r="A15" t="n">
         <v>0</v>
       </c>
@@ -3371,7 +3530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" hidden="1" s="6">
+    <row r="16" hidden="1" s="15">
       <c r="A16" t="n">
         <v>0</v>
       </c>
@@ -3385,7 +3544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" hidden="1" s="6">
+    <row r="17" hidden="1" s="15">
       <c r="A17" t="n">
         <v>0</v>
       </c>
@@ -3399,7 +3558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" hidden="1" s="6">
+    <row r="18" hidden="1" s="15">
       <c r="A18" t="n">
         <v>0</v>
       </c>
@@ -3413,7 +3572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" hidden="1" s="6">
+    <row r="19" hidden="1" s="15">
       <c r="A19" t="n">
         <v>0</v>
       </c>
@@ -3427,7 +3586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" hidden="1" s="6">
+    <row r="20" hidden="1" s="15">
       <c r="A20" t="n">
         <v>0</v>
       </c>
@@ -3441,7 +3600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" hidden="1" s="6">
+    <row r="21" hidden="1" s="15">
       <c r="A21" t="n">
         <v>0</v>
       </c>
@@ -3455,7 +3614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" hidden="1" s="6">
+    <row r="22" hidden="1" s="15">
       <c r="A22" t="n">
         <v>0</v>
       </c>
@@ -3469,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" hidden="1" s="6">
+    <row r="23" hidden="1" s="15">
       <c r="A23" t="n">
         <v>0</v>
       </c>
@@ -3483,7 +3642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" hidden="1" s="6">
+    <row r="24" hidden="1" s="15">
       <c r="A24" t="n">
         <v>0</v>
       </c>
@@ -3497,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" hidden="1" s="6">
+    <row r="25" hidden="1" s="15">
       <c r="A25" t="n">
         <v>0</v>
       </c>
@@ -3511,7 +3670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" hidden="1" s="6">
+    <row r="26" hidden="1" s="15">
       <c r="A26" t="n">
         <v>0</v>
       </c>
@@ -3525,7 +3684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" hidden="1" s="6">
+    <row r="27" hidden="1" s="15">
       <c r="A27" t="n">
         <v>1</v>
       </c>
@@ -3539,7 +3698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" hidden="1" s="6">
+    <row r="28" hidden="1" s="15">
       <c r="A28" t="n">
         <v>0</v>
       </c>
@@ -3553,7 +3712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" hidden="1" s="6">
+    <row r="29" hidden="1" s="15">
       <c r="A29" t="n">
         <v>0</v>
       </c>
@@ -3567,7 +3726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" hidden="1" s="6">
+    <row r="30" hidden="1" s="15">
       <c r="A30" t="n">
         <v>0</v>
       </c>
@@ -3581,7 +3740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" hidden="1" s="6">
+    <row r="31" hidden="1" s="15">
       <c r="A31" t="n">
         <v>0</v>
       </c>
@@ -3595,7 +3754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" hidden="1" s="6">
+    <row r="32" hidden="1" s="15">
       <c r="A32" t="n">
         <v>0</v>
       </c>
@@ -3609,7 +3768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" hidden="1" s="6">
+    <row r="33" hidden="1" s="15">
       <c r="A33" t="n">
         <v>0</v>
       </c>
@@ -3623,7 +3782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" hidden="1" s="6">
+    <row r="34" hidden="1" s="15">
       <c r="A34" t="n">
         <v>0</v>
       </c>
@@ -3637,7 +3796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" hidden="1" s="6">
+    <row r="35" hidden="1" s="15">
       <c r="A35" t="n">
         <v>0</v>
       </c>
@@ -3651,7 +3810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" hidden="1" s="6">
+    <row r="36" hidden="1" s="15">
       <c r="A36" t="n">
         <v>0</v>
       </c>
@@ -3665,7 +3824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" hidden="1" s="6">
+    <row r="37" hidden="1" s="15">
       <c r="A37" t="n">
         <v>0</v>
       </c>
@@ -3679,7 +3838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" hidden="1" s="6">
+    <row r="38" hidden="1" s="15">
       <c r="A38" t="n">
         <v>0</v>
       </c>
@@ -3693,7 +3852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" hidden="1" s="6">
+    <row r="39" hidden="1" s="15">
       <c r="A39" t="n">
         <v>0</v>
       </c>
@@ -3707,7 +3866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" hidden="1" s="6">
+    <row r="40" hidden="1" s="15">
       <c r="A40" t="n">
         <v>0</v>
       </c>
@@ -3721,7 +3880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" hidden="1" s="6">
+    <row r="41" hidden="1" s="15">
       <c r="A41" t="n">
         <v>0</v>
       </c>
@@ -3735,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" hidden="1" s="6">
+    <row r="42" hidden="1" s="15">
       <c r="A42" t="n">
         <v>0</v>
       </c>
@@ -3749,7 +3908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" hidden="1" s="6">
+    <row r="43" hidden="1" s="15">
       <c r="A43" t="n">
         <v>0</v>
       </c>
@@ -3763,7 +3922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" hidden="1" s="6">
+    <row r="44" hidden="1" s="15">
       <c r="A44" t="n">
         <v>0</v>
       </c>
@@ -3777,7 +3936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" hidden="1" s="6">
+    <row r="45" hidden="1" s="15">
       <c r="A45" t="n">
         <v>0</v>
       </c>
@@ -3791,7 +3950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" hidden="1" s="6">
+    <row r="46" hidden="1" s="15">
       <c r="A46" t="n">
         <v>0</v>
       </c>
@@ -3805,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" hidden="1" s="6">
+    <row r="47" hidden="1" s="15">
       <c r="A47" t="n">
         <v>0</v>
       </c>
@@ -3819,7 +3978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" hidden="1" s="6">
+    <row r="48" hidden="1" s="15">
       <c r="A48" t="n">
         <v>0</v>
       </c>
@@ -3833,7 +3992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" hidden="1" s="6">
+    <row r="49" hidden="1" s="15">
       <c r="A49" t="n">
         <v>0</v>
       </c>
@@ -3847,7 +4006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" hidden="1" s="6">
+    <row r="50" hidden="1" s="15">
       <c r="A50" t="n">
         <v>0</v>
       </c>
@@ -3861,7 +4020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" hidden="1" s="6">
+    <row r="51" hidden="1" s="15">
       <c r="A51" t="n">
         <v>0</v>
       </c>
@@ -3875,7 +4034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" hidden="1" s="6">
+    <row r="52" hidden="1" s="15">
       <c r="A52" t="n">
         <v>0</v>
       </c>
@@ -3901,7 +4060,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3909,120 +4068,120 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.77734375" customWidth="1" style="6" min="1" max="1"/>
-    <col width="6.44140625" customWidth="1" style="6" min="2" max="2"/>
-    <col width="4.6640625" customWidth="1" style="6" min="3" max="3"/>
-    <col width="6" customWidth="1" style="6" min="4" max="4"/>
-    <col width="5.5546875" customWidth="1" style="6" min="5" max="5"/>
-    <col width="9.88671875" customWidth="1" style="6" min="6" max="6"/>
-    <col width="2.77734375" customWidth="1" style="6" min="7" max="7"/>
-    <col width="4.88671875" customWidth="1" style="6" min="8" max="8"/>
-    <col width="6.44140625" customWidth="1" style="6" min="9" max="9"/>
-    <col width="4.6640625" customWidth="1" style="6" min="10" max="10"/>
-    <col width="6" customWidth="1" style="6" min="11" max="11"/>
-    <col width="5.5546875" customWidth="1" style="6" min="12" max="12"/>
-    <col width="9.88671875" customWidth="1" style="6" min="13" max="13"/>
-    <col width="2.77734375" customWidth="1" style="6" min="14" max="14"/>
+    <col width="2.77734375" customWidth="1" style="15" min="1" max="1"/>
+    <col width="6.44140625" customWidth="1" style="15" min="2" max="2"/>
+    <col width="4.6640625" customWidth="1" style="15" min="3" max="3"/>
+    <col width="6" customWidth="1" style="15" min="4" max="4"/>
+    <col width="5.5546875" customWidth="1" style="15" min="5" max="5"/>
+    <col width="9.88671875" customWidth="1" style="15" min="6" max="6"/>
+    <col width="2.77734375" customWidth="1" style="15" min="7" max="7"/>
+    <col width="4.88671875" customWidth="1" style="15" min="8" max="8"/>
+    <col width="6.44140625" customWidth="1" style="15" min="9" max="9"/>
+    <col width="4.6640625" customWidth="1" style="15" min="10" max="10"/>
+    <col width="6" customWidth="1" style="15" min="11" max="11"/>
+    <col width="5.5546875" customWidth="1" style="15" min="12" max="12"/>
+    <col width="9.88671875" customWidth="1" style="15" min="13" max="13"/>
+    <col width="2.77734375" customWidth="1" style="15" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="n"/>
-      <c r="B1" s="7" t="n"/>
-      <c r="C1" s="7" t="n"/>
-      <c r="D1" s="7" t="n"/>
-      <c r="E1" s="7" t="n"/>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="7" t="n"/>
-      <c r="H1" s="7" t="n"/>
-      <c r="I1" s="7" t="n"/>
-      <c r="J1" s="7" t="n"/>
-      <c r="K1" s="7" t="n"/>
-      <c r="L1" s="7" t="n"/>
-      <c r="M1" s="7" t="n"/>
-      <c r="N1" s="7" t="n"/>
+      <c r="A1" s="6" t="n"/>
+      <c r="B1" s="6" t="n"/>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="n"/>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="A2" s="6" t="n"/>
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>Talent Materials</t>
         </is>
       </c>
-      <c r="G2" s="7" t="n"/>
-      <c r="H2" s="8" t="inlineStr">
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="16" t="inlineStr">
         <is>
           <t>Weapon Materials</t>
         </is>
       </c>
-      <c r="N2" s="7" t="n"/>
+      <c r="N2" s="6" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n"/>
-      <c r="G3" s="7" t="n"/>
-      <c r="N3" s="7" t="n"/>
+      <c r="A3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
+      <c r="N3" s="6" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n"/>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="17" t="inlineStr">
         <is>
           <t>Purple</t>
         </is>
       </c>
-      <c r="C4" s="10" t="inlineStr">
+      <c r="C4" s="18" t="inlineStr">
         <is>
           <t>Blue</t>
         </is>
       </c>
-      <c r="D4" s="11" t="inlineStr">
+      <c r="D4" s="19" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
       </c>
-      <c r="E4" s="12" t="inlineStr">
+      <c r="E4" s="20" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
+      <c r="F4" s="20" t="inlineStr">
         <is>
           <t>Probability</t>
         </is>
       </c>
-      <c r="G4" s="7" t="n"/>
-      <c r="H4" s="13" t="inlineStr">
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="21" t="inlineStr">
         <is>
           <t>Gold</t>
         </is>
       </c>
-      <c r="I4" s="9" t="inlineStr">
+      <c r="I4" s="17" t="inlineStr">
         <is>
           <t>Purple</t>
         </is>
       </c>
-      <c r="J4" s="10" t="inlineStr">
+      <c r="J4" s="18" t="inlineStr">
         <is>
           <t>Blue</t>
         </is>
       </c>
-      <c r="K4" s="11" t="inlineStr">
+      <c r="K4" s="19" t="inlineStr">
         <is>
           <t>Green</t>
         </is>
       </c>
-      <c r="L4" s="12" t="inlineStr">
+      <c r="L4" s="20" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="M4" s="12" t="inlineStr">
+      <c r="M4" s="20" t="inlineStr">
         <is>
           <t>Probability</t>
         </is>
       </c>
-      <c r="N4" s="7" t="n"/>
+      <c r="N4" s="6" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="n"/>
+      <c r="A5" s="6" t="n"/>
       <c r="B5" t="n">
         <v>2</v>
       </c>
@@ -4035,10 +4194,10 @@
       <c r="E5" t="n">
         <v>20</v>
       </c>
-      <c r="F5" s="14" t="n">
-        <v>0.01271186440677966</v>
-      </c>
-      <c r="G5" s="7" t="n"/>
+      <c r="F5" s="7" t="n">
+        <v>0.01224489795918367</v>
+      </c>
+      <c r="G5" s="6" t="n"/>
       <c r="H5" t="n">
         <v>1</v>
       </c>
@@ -4054,13 +4213,13 @@
       <c r="L5" t="n">
         <v>41</v>
       </c>
-      <c r="M5" s="14" t="n">
+      <c r="M5" s="7" t="n">
         <v>0.0196078431372549</v>
       </c>
-      <c r="N5" s="7" t="n"/>
+      <c r="N5" s="6" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="n"/>
+      <c r="A6" s="6" t="n"/>
       <c r="B6" t="n">
         <v>1</v>
       </c>
@@ -4073,10 +4232,10 @@
       <c r="E6" t="n">
         <v>17</v>
       </c>
-      <c r="F6" s="14" t="n">
-        <v>0.0423728813559322</v>
-      </c>
-      <c r="G6" s="7" t="n"/>
+      <c r="F6" s="7" t="n">
+        <v>0.04081632653061224</v>
+      </c>
+      <c r="G6" s="6" t="n"/>
       <c r="H6" t="n">
         <v>0</v>
       </c>
@@ -4092,13 +4251,13 @@
       <c r="L6" t="n">
         <v>26</v>
       </c>
-      <c r="M6" s="14" t="n">
+      <c r="M6" s="7" t="n">
         <v>0.0196078431372549</v>
       </c>
-      <c r="N6" s="7" t="n"/>
+      <c r="N6" s="6" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="n"/>
+      <c r="A7" s="6" t="n"/>
       <c r="B7" t="n">
         <v>1</v>
       </c>
@@ -4111,10 +4270,10 @@
       <c r="E7" t="n">
         <v>15</v>
       </c>
-      <c r="F7" s="14" t="n">
-        <v>0.0211864406779661</v>
-      </c>
-      <c r="G7" s="7" t="n"/>
+      <c r="F7" s="7" t="n">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="G7" s="6" t="n"/>
       <c r="H7" t="n">
         <v>0</v>
       </c>
@@ -4130,13 +4289,13 @@
       <c r="L7" t="n">
         <v>24</v>
       </c>
-      <c r="M7" s="14" t="n">
+      <c r="M7" s="7" t="n">
         <v>0.0196078431372549</v>
       </c>
-      <c r="N7" s="7" t="n"/>
+      <c r="N7" s="6" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="n"/>
+      <c r="A8" s="6" t="n"/>
       <c r="B8" t="n">
         <v>1</v>
       </c>
@@ -4149,10 +4308,10 @@
       <c r="E8" t="n">
         <v>14</v>
       </c>
-      <c r="F8" s="14" t="n">
-        <v>0.1313559322033898</v>
-      </c>
-      <c r="G8" s="7" t="n"/>
+      <c r="F8" s="7" t="n">
+        <v>0.1265306122448979</v>
+      </c>
+      <c r="G8" s="6" t="n"/>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -4168,13 +4327,13 @@
       <c r="L8" t="n">
         <v>23</v>
       </c>
-      <c r="M8" s="14" t="n">
+      <c r="M8" s="7" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="N8" s="7" t="n"/>
+      <c r="N8" s="6" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="n"/>
+      <c r="A9" s="6" t="n"/>
       <c r="B9" t="n">
         <v>0</v>
       </c>
@@ -4187,10 +4346,10 @@
       <c r="E9" t="n">
         <v>12</v>
       </c>
-      <c r="F9" s="14" t="n">
-        <v>0.02966101694915254</v>
-      </c>
-      <c r="G9" s="7" t="n"/>
+      <c r="F9" s="7" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="G9" s="6" t="n"/>
       <c r="H9" t="n">
         <v>0</v>
       </c>
@@ -4206,13 +4365,13 @@
       <c r="L9" t="n">
         <v>21</v>
       </c>
-      <c r="M9" s="14" t="n">
+      <c r="M9" s="7" t="n">
         <v>0.0196078431372549</v>
       </c>
-      <c r="N9" s="7" t="n"/>
+      <c r="N9" s="6" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n"/>
+      <c r="A10" s="6" t="n"/>
       <c r="B10" t="n">
         <v>0</v>
       </c>
@@ -4225,10 +4384,10 @@
       <c r="E10" t="n">
         <v>11</v>
       </c>
-      <c r="F10" s="14" t="n">
-        <v>0.1101694915254237</v>
-      </c>
-      <c r="G10" s="7" t="n"/>
+      <c r="F10" s="7" t="n">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="G10" s="6" t="n"/>
       <c r="H10" t="n">
         <v>0</v>
       </c>
@@ -4244,13 +4403,13 @@
       <c r="L10" t="n">
         <v>20</v>
       </c>
-      <c r="M10" s="14" t="n">
+      <c r="M10" s="7" t="n">
         <v>0.0196078431372549</v>
       </c>
-      <c r="N10" s="7" t="n"/>
+      <c r="N10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n"/>
+      <c r="A11" s="6" t="n"/>
       <c r="B11" t="n">
         <v>0</v>
       </c>
@@ -4263,10 +4422,10 @@
       <c r="E11" t="n">
         <v>9</v>
       </c>
-      <c r="F11" s="14" t="n">
-        <v>0.1059322033898305</v>
-      </c>
-      <c r="G11" s="7" t="n"/>
+      <c r="F11" s="7" t="n">
+        <v>0.1102040816326531</v>
+      </c>
+      <c r="G11" s="6" t="n"/>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -4282,13 +4441,13 @@
       <c r="L11" t="n">
         <v>18</v>
       </c>
-      <c r="M11" s="14" t="n">
+      <c r="M11" s="7" t="n">
         <v>0.0392156862745098</v>
       </c>
-      <c r="N11" s="7" t="n"/>
+      <c r="N11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
+      <c r="A12" s="6" t="n"/>
       <c r="B12" t="n">
         <v>0</v>
       </c>
@@ -4301,10 +4460,10 @@
       <c r="E12" t="n">
         <v>8</v>
       </c>
-      <c r="F12" s="14" t="n">
-        <v>0.5466101694915254</v>
-      </c>
-      <c r="G12" s="7" t="n"/>
+      <c r="F12" s="7" t="n">
+        <v>0.5469387755102041</v>
+      </c>
+      <c r="G12" s="6" t="n"/>
       <c r="H12" t="n">
         <v>0</v>
       </c>
@@ -4320,14 +4479,14 @@
       <c r="L12" t="n">
         <v>17</v>
       </c>
-      <c r="M12" s="14" t="n">
+      <c r="M12" s="7" t="n">
         <v>0.2549019607843137</v>
       </c>
-      <c r="N12" s="7" t="n"/>
+      <c r="N12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
+      <c r="A13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
       <c r="H13" t="n">
         <v>0</v>
       </c>
@@ -4343,14 +4502,14 @@
       <c r="L13" t="n">
         <v>15</v>
       </c>
-      <c r="M13" s="14" t="n">
+      <c r="M13" s="7" t="n">
         <v>0.0196078431372549</v>
       </c>
-      <c r="N13" s="7" t="n"/>
+      <c r="N13" s="6" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
+      <c r="A14" s="6" t="n"/>
+      <c r="G14" s="6" t="n"/>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -4366,14 +4525,14 @@
       <c r="L14" t="n">
         <v>14</v>
       </c>
-      <c r="M14" s="14" t="n">
+      <c r="M14" s="7" t="n">
         <v>0.0392156862745098</v>
       </c>
-      <c r="N14" s="7" t="n"/>
+      <c r="N14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
+      <c r="A15" s="6" t="n"/>
+      <c r="G15" s="6" t="n"/>
       <c r="H15" t="n">
         <v>0</v>
       </c>
@@ -4389,14 +4548,14 @@
       <c r="L15" t="n">
         <v>12</v>
       </c>
-      <c r="M15" s="14" t="n">
+      <c r="M15" s="7" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="N15" s="7" t="n"/>
+      <c r="N15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
+      <c r="A16" s="6" t="n"/>
+      <c r="G16" s="6" t="n"/>
       <c r="H16" t="n">
         <v>0</v>
       </c>
@@ -4412,180 +4571,430 @@
       <c r="L16" t="n">
         <v>11</v>
       </c>
-      <c r="M16" s="14" t="n">
+      <c r="M16" s="7" t="n">
         <v>0.4313725490196079</v>
       </c>
-      <c r="N16" s="7" t="n"/>
+      <c r="N16" s="6" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
-      <c r="N17" s="7" t="n"/>
+      <c r="A17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="N17" s="6" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
-      <c r="N18" s="7" t="n"/>
+      <c r="A18" s="6" t="n"/>
+      <c r="G18" s="6" t="n"/>
+      <c r="N18" s="6" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
-      <c r="N19" s="7" t="n"/>
+      <c r="A19" s="6" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="N19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-      <c r="N20" s="7" t="n"/>
+      <c r="A20" s="6" t="n"/>
+      <c r="G20" s="6" t="n"/>
+      <c r="N20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-      <c r="N21" s="7" t="n"/>
+      <c r="A21" s="6" t="n"/>
+      <c r="G21" s="6" t="n"/>
+      <c r="N21" s="6" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-      <c r="N22" s="7" t="n"/>
+      <c r="A22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
+      <c r="N22" s="6" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
-      <c r="N23" s="7" t="n"/>
+      <c r="A23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
+      <c r="N23" s="6" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
-      <c r="N24" s="7" t="n"/>
+      <c r="A24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="N24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
-      <c r="N25" s="7" t="n"/>
+      <c r="A25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
+      <c r="N25" s="6" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n"/>
-      <c r="G26" s="7" t="n"/>
-      <c r="N26" s="7" t="n"/>
+      <c r="A26" s="6" t="n"/>
+      <c r="G26" s="6" t="n"/>
+      <c r="N26" s="6" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="n"/>
-      <c r="G27" s="7" t="n"/>
-      <c r="N27" s="7" t="n"/>
+      <c r="A27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
+      <c r="N27" s="6" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="n"/>
-      <c r="G28" s="7" t="n"/>
-      <c r="N28" s="7" t="n"/>
+      <c r="A28" s="6" t="n"/>
+      <c r="G28" s="6" t="n"/>
+      <c r="N28" s="6" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="n"/>
-      <c r="G29" s="7" t="n"/>
-      <c r="N29" s="7" t="n"/>
+      <c r="A29" s="6" t="n"/>
+      <c r="G29" s="6" t="n"/>
+      <c r="N29" s="6" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="7" t="n"/>
-      <c r="G30" s="7" t="n"/>
-      <c r="N30" s="7" t="n"/>
+      <c r="A30" s="6" t="n"/>
+      <c r="G30" s="6" t="n"/>
+      <c r="N30" s="6" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="7" t="n"/>
-      <c r="G31" s="7" t="n"/>
-      <c r="N31" s="7" t="n"/>
+      <c r="A31" s="6" t="n"/>
+      <c r="G31" s="6" t="n"/>
+      <c r="N31" s="6" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="n"/>
-      <c r="G32" s="7" t="n"/>
-      <c r="N32" s="7" t="n"/>
+      <c r="A32" s="6" t="n"/>
+      <c r="G32" s="6" t="n"/>
+      <c r="N32" s="6" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="7" t="n"/>
-      <c r="G33" s="7" t="n"/>
-      <c r="N33" s="7" t="n"/>
+      <c r="A33" s="6" t="n"/>
+      <c r="G33" s="6" t="n"/>
+      <c r="N33" s="6" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="7" t="n"/>
-      <c r="G34" s="7" t="n"/>
-      <c r="N34" s="7" t="n"/>
+      <c r="A34" s="6" t="n"/>
+      <c r="G34" s="6" t="n"/>
+      <c r="N34" s="6" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="7" t="n"/>
-      <c r="G35" s="7" t="n"/>
-      <c r="N35" s="7" t="n"/>
+      <c r="A35" s="6" t="n"/>
+      <c r="G35" s="6" t="n"/>
+      <c r="N35" s="6" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="n"/>
-      <c r="G36" s="7" t="n"/>
-      <c r="N36" s="7" t="n"/>
+      <c r="A36" s="6" t="n"/>
+      <c r="G36" s="6" t="n"/>
+      <c r="N36" s="6" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="7" t="n"/>
-      <c r="G37" s="7" t="n"/>
-      <c r="N37" s="7" t="n"/>
+      <c r="A37" s="6" t="n"/>
+      <c r="G37" s="6" t="n"/>
+      <c r="N37" s="6" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="7" t="n"/>
-      <c r="G38" s="7" t="n"/>
-      <c r="N38" s="7" t="n"/>
+      <c r="A38" s="6" t="n"/>
+      <c r="G38" s="6" t="n"/>
+      <c r="N38" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="7" t="n"/>
-      <c r="G39" s="7" t="n"/>
-      <c r="N39" s="7" t="n"/>
+      <c r="A39" s="6" t="n"/>
+      <c r="G39" s="6" t="n"/>
+      <c r="N39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="7" t="n"/>
-      <c r="G40" s="7" t="n"/>
-      <c r="N40" s="7" t="n"/>
+      <c r="A40" s="6" t="n"/>
+      <c r="G40" s="6" t="n"/>
+      <c r="N40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="n"/>
-      <c r="G41" s="7" t="n"/>
-      <c r="N41" s="7" t="n"/>
+      <c r="A41" s="6" t="n"/>
+      <c r="G41" s="6" t="n"/>
+      <c r="N41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="n"/>
-      <c r="G42" s="7" t="n"/>
-      <c r="N42" s="7" t="n"/>
+      <c r="A42" s="6" t="n"/>
+      <c r="G42" s="6" t="n"/>
+      <c r="N42" s="6" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="7" t="n"/>
-      <c r="G43" s="7" t="n"/>
-      <c r="N43" s="7" t="n"/>
+      <c r="A43" s="6" t="n"/>
+      <c r="G43" s="6" t="n"/>
+      <c r="N43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="7" t="n"/>
-      <c r="G44" s="7" t="n"/>
-      <c r="N44" s="7" t="n"/>
+      <c r="A44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
+      <c r="N44" s="6" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="n"/>
-      <c r="G45" s="7" t="n"/>
-      <c r="N45" s="7" t="n"/>
+      <c r="A45" s="6" t="n"/>
+      <c r="G45" s="6" t="n"/>
+      <c r="N45" s="6" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="7" t="n"/>
-      <c r="G46" s="7" t="n"/>
-      <c r="N46" s="7" t="n"/>
+      <c r="A46" s="6" t="n"/>
+      <c r="G46" s="6" t="n"/>
+      <c r="N46" s="6" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="n"/>
-      <c r="G47" s="7" t="n"/>
-      <c r="N47" s="7" t="n"/>
+      <c r="A47" s="6" t="n"/>
+      <c r="G47" s="6" t="n"/>
+      <c r="N47" s="6" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="n"/>
-      <c r="G48" s="7" t="n"/>
-      <c r="N48" s="7" t="n"/>
+      <c r="A48" s="6" t="n"/>
+      <c r="G48" s="6" t="n"/>
+      <c r="N48" s="6" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="7" t="n"/>
-      <c r="G49" s="7" t="n"/>
-      <c r="N49" s="7" t="n"/>
+      <c r="A49" s="6" t="n"/>
+      <c r="G49" s="6" t="n"/>
+      <c r="N49" s="6" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="7" t="n"/>
-      <c r="G50" s="7" t="n"/>
-      <c r="N50" s="7" t="n"/>
+      <c r="A50" s="6" t="n"/>
+      <c r="G50" s="6" t="n"/>
+      <c r="N50" s="6" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="G51" s="6" t="n"/>
+      <c r="N51" s="6" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="G52" s="6" t="n"/>
+      <c r="N52" s="6" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="G53" s="6" t="n"/>
+      <c r="N53" s="6" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="G54" s="6" t="n"/>
+      <c r="N54" s="6" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="G55" s="6" t="n"/>
+      <c r="N55" s="6" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="G56" s="6" t="n"/>
+      <c r="N56" s="6" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="G57" s="6" t="n"/>
+      <c r="N57" s="6" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n"/>
+      <c r="G58" s="6" t="n"/>
+      <c r="N58" s="6" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n"/>
+      <c r="G59" s="6" t="n"/>
+      <c r="N59" s="6" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n"/>
+      <c r="G60" s="6" t="n"/>
+      <c r="N60" s="6" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n"/>
+      <c r="G61" s="6" t="n"/>
+      <c r="N61" s="6" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n"/>
+      <c r="G62" s="6" t="n"/>
+      <c r="N62" s="6" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n"/>
+      <c r="G63" s="6" t="n"/>
+      <c r="N63" s="6" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n"/>
+      <c r="G64" s="6" t="n"/>
+      <c r="N64" s="6" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n"/>
+      <c r="G65" s="6" t="n"/>
+      <c r="N65" s="6" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n"/>
+      <c r="G66" s="6" t="n"/>
+      <c r="N66" s="6" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n"/>
+      <c r="G67" s="6" t="n"/>
+      <c r="N67" s="6" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n"/>
+      <c r="G68" s="6" t="n"/>
+      <c r="N68" s="6" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n"/>
+      <c r="G69" s="6" t="n"/>
+      <c r="N69" s="6" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n"/>
+      <c r="G70" s="6" t="n"/>
+      <c r="N70" s="6" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n"/>
+      <c r="G71" s="6" t="n"/>
+      <c r="N71" s="6" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n"/>
+      <c r="G72" s="6" t="n"/>
+      <c r="N72" s="6" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n"/>
+      <c r="G73" s="6" t="n"/>
+      <c r="N73" s="6" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n"/>
+      <c r="G74" s="6" t="n"/>
+      <c r="N74" s="6" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n"/>
+      <c r="G75" s="6" t="n"/>
+      <c r="N75" s="6" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n"/>
+      <c r="G76" s="6" t="n"/>
+      <c r="N76" s="6" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n"/>
+      <c r="G77" s="6" t="n"/>
+      <c r="N77" s="6" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n"/>
+      <c r="G78" s="6" t="n"/>
+      <c r="N78" s="6" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n"/>
+      <c r="G79" s="6" t="n"/>
+      <c r="N79" s="6" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n"/>
+      <c r="G80" s="6" t="n"/>
+      <c r="N80" s="6" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n"/>
+      <c r="G81" s="6" t="n"/>
+      <c r="N81" s="6" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n"/>
+      <c r="G82" s="6" t="n"/>
+      <c r="N82" s="6" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n"/>
+      <c r="G83" s="6" t="n"/>
+      <c r="N83" s="6" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n"/>
+      <c r="G84" s="6" t="n"/>
+      <c r="N84" s="6" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="n"/>
+      <c r="G85" s="6" t="n"/>
+      <c r="N85" s="6" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="n"/>
+      <c r="G86" s="6" t="n"/>
+      <c r="N86" s="6" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="n"/>
+      <c r="G87" s="6" t="n"/>
+      <c r="N87" s="6" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="n"/>
+      <c r="G88" s="6" t="n"/>
+      <c r="N88" s="6" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="n"/>
+      <c r="G89" s="6" t="n"/>
+      <c r="N89" s="6" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n"/>
+      <c r="G90" s="6" t="n"/>
+      <c r="N90" s="6" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n"/>
+      <c r="G91" s="6" t="n"/>
+      <c r="N91" s="6" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n"/>
+      <c r="G92" s="6" t="n"/>
+      <c r="N92" s="6" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n"/>
+      <c r="G93" s="6" t="n"/>
+      <c r="N93" s="6" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n"/>
+      <c r="G94" s="6" t="n"/>
+      <c r="N94" s="6" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n"/>
+      <c r="G95" s="6" t="n"/>
+      <c r="N95" s="6" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="n"/>
+      <c r="G96" s="6" t="n"/>
+      <c r="N96" s="6" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="n"/>
+      <c r="G97" s="6" t="n"/>
+      <c r="N97" s="6" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="n"/>
+      <c r="G98" s="6" t="n"/>
+      <c r="N98" s="6" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="n"/>
+      <c r="G99" s="6" t="n"/>
+      <c r="N99" s="6" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="n"/>
+      <c r="G100" s="6" t="n"/>
+      <c r="N100" s="6" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4605,7 +5014,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M16">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4618,4 +5027,979 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="2.77734375" customWidth="1" style="15" min="1" max="1"/>
+    <col width="6.44140625" customWidth="1" style="15" min="2" max="2"/>
+    <col width="4.6640625" customWidth="1" style="15" min="3" max="3"/>
+    <col width="6" customWidth="1" style="15" min="4" max="4"/>
+    <col width="5.5546875" customWidth="1" style="15" min="5" max="5"/>
+    <col width="9.88671875" customWidth="1" style="15" min="6" max="6"/>
+    <col width="2.77734375" customWidth="1" style="15" min="7" max="7"/>
+    <col width="4.88671875" customWidth="1" style="15" min="8" max="8"/>
+    <col width="6.44140625" customWidth="1" style="15" min="9" max="9"/>
+    <col width="4.6640625" customWidth="1" style="15" min="10" max="10"/>
+    <col width="6" customWidth="1" style="15" min="11" max="11"/>
+    <col width="5.5546875" customWidth="1" style="15" min="12" max="12"/>
+    <col width="9.88671875" customWidth="1" style="15" min="13" max="13"/>
+    <col width="2.77734375" customWidth="1" style="15" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="n"/>
+      <c r="B1" s="6" t="n"/>
+      <c r="C1" s="6" t="n"/>
+      <c r="D1" s="6" t="n"/>
+      <c r="E1" s="6" t="n"/>
+      <c r="F1" s="6" t="n"/>
+      <c r="G1" s="6" t="n"/>
+      <c r="H1" s="6" t="n"/>
+      <c r="I1" s="6" t="n"/>
+      <c r="J1" s="6" t="n"/>
+      <c r="K1" s="6" t="n"/>
+      <c r="L1" s="6" t="n"/>
+      <c r="M1" s="6" t="n"/>
+      <c r="N1" s="6" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n"/>
+      <c r="B2" s="14" t="inlineStr">
+        <is>
+          <t>Talent Materials</t>
+        </is>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="14" t="inlineStr">
+        <is>
+          <t>Weapon Materials</t>
+        </is>
+      </c>
+      <c r="N2" s="6" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n"/>
+      <c r="G3" s="6" t="n"/>
+      <c r="N3" s="6" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n"/>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="E4" s="13" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="F4" s="13" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="9" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="I4" s="10" t="inlineStr">
+        <is>
+          <t>Purple</t>
+        </is>
+      </c>
+      <c r="J4" s="11" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="K4" s="12" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="L4" s="13" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="M4" s="13" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="N4" s="6" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n"/>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="n">
+        <v>0.01234567901234568</v>
+      </c>
+      <c r="G5" s="6" t="n"/>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>41</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="N5" s="6" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n"/>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7" t="n">
+        <v>0.0411522633744856</v>
+      </c>
+      <c r="G6" s="6" t="n"/>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>26</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="N6" s="6" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n"/>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>0.0205761316872428</v>
+      </c>
+      <c r="G7" s="6" t="n"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>24</v>
+      </c>
+      <c r="M7" s="7" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="N7" s="6" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n"/>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>0.1275720164609054</v>
+      </c>
+      <c r="G8" s="6" t="n"/>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>23</v>
+      </c>
+      <c r="M8" s="7" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="N8" s="6" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n"/>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>0.02880658436213992</v>
+      </c>
+      <c r="G9" s="6" t="n"/>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>21</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="N9" s="6" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n"/>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>0.1152263374485597</v>
+      </c>
+      <c r="G10" s="6" t="n"/>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>20</v>
+      </c>
+      <c r="M10" s="7" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="N10" s="6" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n"/>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>0.1069958847736626</v>
+      </c>
+      <c r="G11" s="6" t="n"/>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>18</v>
+      </c>
+      <c r="M11" s="7" t="n">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="N11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n"/>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>0.5473251028806584</v>
+      </c>
+      <c r="G12" s="6" t="n"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>17</v>
+      </c>
+      <c r="M12" s="7" t="n">
+        <v>0.2549019607843137</v>
+      </c>
+      <c r="N12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n"/>
+      <c r="G13" s="6" t="n"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>15</v>
+      </c>
+      <c r="M13" s="7" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="N13" s="6" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n"/>
+      <c r="G14" s="6" t="n"/>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>14</v>
+      </c>
+      <c r="M14" s="7" t="n">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="N14" s="6" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n"/>
+      <c r="G15" s="6" t="n"/>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>12</v>
+      </c>
+      <c r="M15" s="7" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="N15" s="6" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n"/>
+      <c r="G16" s="6" t="n"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7" t="n">
+        <v>0.4313725490196079</v>
+      </c>
+      <c r="N16" s="6" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n"/>
+      <c r="G17" s="6" t="n"/>
+      <c r="N17" s="6" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n"/>
+      <c r="G18" s="6" t="n"/>
+      <c r="N18" s="6" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n"/>
+      <c r="G19" s="6" t="n"/>
+      <c r="N19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n"/>
+      <c r="G20" s="6" t="n"/>
+      <c r="N20" s="6" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n"/>
+      <c r="G21" s="6" t="n"/>
+      <c r="N21" s="6" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n"/>
+      <c r="G22" s="6" t="n"/>
+      <c r="N22" s="6" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n"/>
+      <c r="G23" s="6" t="n"/>
+      <c r="N23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n"/>
+      <c r="G24" s="6" t="n"/>
+      <c r="N24" s="6" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n"/>
+      <c r="G25" s="6" t="n"/>
+      <c r="N25" s="6" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n"/>
+      <c r="G26" s="6" t="n"/>
+      <c r="N26" s="6" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n"/>
+      <c r="G27" s="6" t="n"/>
+      <c r="N27" s="6" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n"/>
+      <c r="G28" s="6" t="n"/>
+      <c r="N28" s="6" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n"/>
+      <c r="G29" s="6" t="n"/>
+      <c r="N29" s="6" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n"/>
+      <c r="G30" s="6" t="n"/>
+      <c r="N30" s="6" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n"/>
+      <c r="G31" s="6" t="n"/>
+      <c r="N31" s="6" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n"/>
+      <c r="G32" s="6" t="n"/>
+      <c r="N32" s="6" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n"/>
+      <c r="G33" s="6" t="n"/>
+      <c r="N33" s="6" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n"/>
+      <c r="G34" s="6" t="n"/>
+      <c r="N34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n"/>
+      <c r="G35" s="6" t="n"/>
+      <c r="N35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n"/>
+      <c r="G36" s="6" t="n"/>
+      <c r="N36" s="6" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n"/>
+      <c r="G37" s="6" t="n"/>
+      <c r="N37" s="6" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n"/>
+      <c r="G38" s="6" t="n"/>
+      <c r="N38" s="6" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n"/>
+      <c r="G39" s="6" t="n"/>
+      <c r="N39" s="6" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n"/>
+      <c r="G40" s="6" t="n"/>
+      <c r="N40" s="6" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n"/>
+      <c r="G41" s="6" t="n"/>
+      <c r="N41" s="6" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n"/>
+      <c r="G42" s="6" t="n"/>
+      <c r="N42" s="6" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n"/>
+      <c r="G43" s="6" t="n"/>
+      <c r="N43" s="6" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n"/>
+      <c r="G44" s="6" t="n"/>
+      <c r="N44" s="6" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n"/>
+      <c r="G45" s="6" t="n"/>
+      <c r="N45" s="6" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n"/>
+      <c r="G46" s="6" t="n"/>
+      <c r="N46" s="6" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n"/>
+      <c r="G47" s="6" t="n"/>
+      <c r="N47" s="6" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n"/>
+      <c r="G48" s="6" t="n"/>
+      <c r="N48" s="6" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n"/>
+      <c r="G49" s="6" t="n"/>
+      <c r="N49" s="6" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n"/>
+      <c r="G50" s="6" t="n"/>
+      <c r="N50" s="6" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n"/>
+      <c r="G51" s="6" t="n"/>
+      <c r="N51" s="6" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n"/>
+      <c r="G52" s="6" t="n"/>
+      <c r="N52" s="6" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n"/>
+      <c r="G53" s="6" t="n"/>
+      <c r="N53" s="6" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n"/>
+      <c r="G54" s="6" t="n"/>
+      <c r="N54" s="6" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n"/>
+      <c r="G55" s="6" t="n"/>
+      <c r="N55" s="6" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n"/>
+      <c r="G56" s="6" t="n"/>
+      <c r="N56" s="6" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n"/>
+      <c r="G57" s="6" t="n"/>
+      <c r="N57" s="6" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n"/>
+      <c r="G58" s="6" t="n"/>
+      <c r="N58" s="6" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n"/>
+      <c r="G59" s="6" t="n"/>
+      <c r="N59" s="6" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n"/>
+      <c r="G60" s="6" t="n"/>
+      <c r="N60" s="6" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n"/>
+      <c r="G61" s="6" t="n"/>
+      <c r="N61" s="6" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n"/>
+      <c r="G62" s="6" t="n"/>
+      <c r="N62" s="6" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n"/>
+      <c r="G63" s="6" t="n"/>
+      <c r="N63" s="6" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n"/>
+      <c r="G64" s="6" t="n"/>
+      <c r="N64" s="6" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n"/>
+      <c r="G65" s="6" t="n"/>
+      <c r="N65" s="6" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n"/>
+      <c r="G66" s="6" t="n"/>
+      <c r="N66" s="6" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n"/>
+      <c r="G67" s="6" t="n"/>
+      <c r="N67" s="6" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n"/>
+      <c r="G68" s="6" t="n"/>
+      <c r="N68" s="6" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n"/>
+      <c r="G69" s="6" t="n"/>
+      <c r="N69" s="6" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n"/>
+      <c r="G70" s="6" t="n"/>
+      <c r="N70" s="6" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n"/>
+      <c r="G71" s="6" t="n"/>
+      <c r="N71" s="6" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="6" t="n"/>
+      <c r="G72" s="6" t="n"/>
+      <c r="N72" s="6" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="n"/>
+      <c r="G73" s="6" t="n"/>
+      <c r="N73" s="6" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="6" t="n"/>
+      <c r="G74" s="6" t="n"/>
+      <c r="N74" s="6" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="n"/>
+      <c r="G75" s="6" t="n"/>
+      <c r="N75" s="6" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="6" t="n"/>
+      <c r="G76" s="6" t="n"/>
+      <c r="N76" s="6" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="n"/>
+      <c r="G77" s="6" t="n"/>
+      <c r="N77" s="6" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="6" t="n"/>
+      <c r="G78" s="6" t="n"/>
+      <c r="N78" s="6" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="n"/>
+      <c r="G79" s="6" t="n"/>
+      <c r="N79" s="6" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="6" t="n"/>
+      <c r="G80" s="6" t="n"/>
+      <c r="N80" s="6" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="n"/>
+      <c r="G81" s="6" t="n"/>
+      <c r="N81" s="6" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="6" t="n"/>
+      <c r="G82" s="6" t="n"/>
+      <c r="N82" s="6" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="n"/>
+      <c r="G83" s="6" t="n"/>
+      <c r="N83" s="6" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="6" t="n"/>
+      <c r="G84" s="6" t="n"/>
+      <c r="N84" s="6" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="n"/>
+      <c r="G85" s="6" t="n"/>
+      <c r="N85" s="6" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="6" t="n"/>
+      <c r="G86" s="6" t="n"/>
+      <c r="N86" s="6" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="n"/>
+      <c r="G87" s="6" t="n"/>
+      <c r="N87" s="6" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="6" t="n"/>
+      <c r="G88" s="6" t="n"/>
+      <c r="N88" s="6" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="n"/>
+      <c r="G89" s="6" t="n"/>
+      <c r="N89" s="6" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="6" t="n"/>
+      <c r="G90" s="6" t="n"/>
+      <c r="N90" s="6" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="n"/>
+      <c r="G91" s="6" t="n"/>
+      <c r="N91" s="6" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="6" t="n"/>
+      <c r="G92" s="6" t="n"/>
+      <c r="N92" s="6" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="n"/>
+      <c r="G93" s="6" t="n"/>
+      <c r="N93" s="6" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="6" t="n"/>
+      <c r="G94" s="6" t="n"/>
+      <c r="N94" s="6" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="n"/>
+      <c r="G95" s="6" t="n"/>
+      <c r="N95" s="6" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="6" t="n"/>
+      <c r="G96" s="6" t="n"/>
+      <c r="N96" s="6" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="n"/>
+      <c r="G97" s="6" t="n"/>
+      <c r="N97" s="6" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="6" t="n"/>
+      <c r="G98" s="6" t="n"/>
+      <c r="N98" s="6" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="n"/>
+      <c r="G99" s="6" t="n"/>
+      <c r="N99" s="6" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="6" t="n"/>
+      <c r="G100" s="6" t="n"/>
+      <c r="N100" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="H2:M3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F5:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Talent and Weapon Level-Up Material Drops/data/talent_weapon_drops.xlsx
+++ b/Talent and Weapon Level-Up Material Drops/data/talent_weapon_drops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin_Impact/Talent and Weapon Level-Up Material Drops/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_C419AF3ABAF6121B49CEF2D57D727817114105CF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58E57034-5DD9-4965-9F36-7622A3D704F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_CE18C76C8496A0B1C23EEEF12156CD5597D34ED9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="348" windowWidth="19764" windowHeight="11172" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="696" windowWidth="19764" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Talent Drop Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Analysis" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Talent Drop Data'!$A$1:$C$281</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Talent Drop Data'!$A$1:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Weapon Drop Data'!$A$1:$D$52</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -186,13 +186,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,16 +479,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="230" topLeftCell="A231" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D249" sqref="D249"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C249" sqref="C249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -3198,7 +3198,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C281" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -3209,16 +3209,16 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <pane ySplit="52" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1">
@@ -3957,26 +3957,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF000000"/>
+  </sheetPr>
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="6" style="8" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="4.88671875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="6" style="8" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="2.77734375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="6.44140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="6" style="13" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="6" style="13" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="2.77734375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4033,38 +4038,38 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="12" t="s">
+      <c r="H4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="6"/>
@@ -4083,7 +4088,7 @@
       <c r="E5">
         <v>20</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="12">
         <v>1.2244897959183669E-2</v>
       </c>
       <c r="G5" s="6"/>
@@ -4102,7 +4107,7 @@
       <c r="L5">
         <v>41</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="12">
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="N5" s="6"/>
@@ -4121,7 +4126,7 @@
       <c r="E6">
         <v>17</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="12">
         <v>4.0816326530612242E-2</v>
       </c>
       <c r="G6" s="6"/>
@@ -4140,7 +4145,7 @@
       <c r="L6">
         <v>26</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="12">
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="N6" s="6"/>
@@ -4159,7 +4164,7 @@
       <c r="E7">
         <v>15</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="12">
         <v>2.0408163265306121E-2</v>
       </c>
       <c r="G7" s="6"/>
@@ -4178,7 +4183,7 @@
       <c r="L7">
         <v>24</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="12">
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="N7" s="6"/>
@@ -4197,7 +4202,7 @@
       <c r="E8">
         <v>14</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="12">
         <v>0.12653061224489789</v>
       </c>
       <c r="G8" s="6"/>
@@ -4216,7 +4221,7 @@
       <c r="L8">
         <v>23</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="12">
         <v>5.8823529411764712E-2</v>
       </c>
       <c r="N8" s="6"/>
@@ -4235,7 +4240,7 @@
       <c r="E9">
         <v>12</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="12">
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="G9" s="6"/>
@@ -4254,7 +4259,7 @@
       <c r="L9">
         <v>21</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="12">
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="N9" s="6"/>
@@ -4273,7 +4278,7 @@
       <c r="E10">
         <v>11</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="12">
         <v>0.1142857142857143</v>
       </c>
       <c r="G10" s="6"/>
@@ -4292,7 +4297,7 @@
       <c r="L10">
         <v>20</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="12">
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="N10" s="6"/>
@@ -4311,7 +4316,7 @@
       <c r="E11">
         <v>9</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="12">
         <v>0.11020408163265311</v>
       </c>
       <c r="G11" s="6"/>
@@ -4330,7 +4335,7 @@
       <c r="L11">
         <v>18</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="12">
         <v>3.9215686274509803E-2</v>
       </c>
       <c r="N11" s="6"/>
@@ -4349,7 +4354,7 @@
       <c r="E12">
         <v>8</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="12">
         <v>0.54693877551020409</v>
       </c>
       <c r="G12" s="6"/>
@@ -4368,7 +4373,7 @@
       <c r="L12">
         <v>17</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="12">
         <v>0.25490196078431371</v>
       </c>
       <c r="N12" s="6"/>
@@ -4391,7 +4396,7 @@
       <c r="L13">
         <v>15</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="12">
         <v>1.9607843137254902E-2</v>
       </c>
       <c r="N13" s="6"/>
@@ -4414,7 +4419,7 @@
       <c r="L14">
         <v>14</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="12">
         <v>3.9215686274509803E-2</v>
       </c>
       <c r="N14" s="6"/>
@@ -4437,7 +4442,7 @@
       <c r="L15">
         <v>12</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="12">
         <v>5.8823529411764712E-2</v>
       </c>
       <c r="N15" s="6"/>
@@ -4460,7 +4465,7 @@
       <c r="L16">
         <v>11</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="12">
         <v>0.43137254901960792</v>
       </c>
       <c r="N16" s="6"/>

--- a/Talent and Weapon Level-Up Material Drops/data/talent_weapon_drops.xlsx
+++ b/Talent and Weapon Level-Up Material Drops/data/talent_weapon_drops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin_Impact/Talent and Weapon Level-Up Material Drops/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_CE1867A46E303FE0C6ADEEED3574CB5597D34A7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB3DBF66-0443-4121-B4BE-1A6901E69EF1}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_CE1867A46E303FE0C6ADEEED3574CB5597D34A7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E5DA395-9EE5-4137-9385-9F23BE142453}"/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="636" windowWidth="19764" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="492" yWindow="0" windowWidth="19764" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Talent Drop Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Talent Drop Data'!$A$1:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Weapon Drop Data'!$A$1:$D$52</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -112,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -120,6 +130,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,16 +411,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C264"/>
+  <dimension ref="A1:C273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A256" sqref="A256:XFD264"/>
+      <selection pane="bottomLeft" activeCell="D270" sqref="D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.21875" style="6" bestFit="1" customWidth="1"/>
   </cols>
@@ -3318,6 +3329,75 @@
         <v>3</v>
       </c>
     </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="6">
+        <v>0</v>
+      </c>
+      <c r="B265" s="6">
+        <v>2</v>
+      </c>
+      <c r="C265" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="6">
+        <v>0</v>
+      </c>
+      <c r="B266" s="6">
+        <v>2</v>
+      </c>
+      <c r="C266" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="6">
+        <v>0</v>
+      </c>
+      <c r="B267" s="6">
+        <v>2</v>
+      </c>
+      <c r="C267" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="6">
+        <v>0</v>
+      </c>
+      <c r="B268" s="6">
+        <v>2</v>
+      </c>
+      <c r="C268" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="6">
+        <v>0</v>
+      </c>
+      <c r="B269" s="6">
+        <v>3</v>
+      </c>
+      <c r="C269" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="6">
+        <v>0</v>
+      </c>
+      <c r="B270" s="6">
+        <v>2</v>
+      </c>
+      <c r="C270" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="272" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="273" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3337,7 +3417,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" style="6" bestFit="1" customWidth="1"/>
   </cols>

--- a/Talent and Weapon Level-Up Material Drops/data/talent_weapon_drops.xlsx
+++ b/Talent and Weapon Level-Up Material Drops/data/talent_weapon_drops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin_Impact/Talent and Weapon Level-Up Material Drops/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_CE1867A46E303FE0C6ADEEED3574CB5597D34A7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E5DA395-9EE5-4137-9385-9F23BE142453}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_CE1867A46E303FE0C6ADEEED3574CB5597D34A7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9292C031-55EE-4549-90E1-C8F6029C30D6}"/>
   <bookViews>
     <workbookView xWindow="492" yWindow="0" windowWidth="19764" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D270" sqref="D270"/>
+      <selection pane="bottomLeft" activeCell="B278" sqref="B278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3329,7 +3329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6">
         <v>0</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>0</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>0</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6">
         <v>0</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6">
         <v>0</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6">
         <v>0</v>
       </c>
@@ -3395,9 +3395,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="272" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="273" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="271" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="7">
+        <v>0</v>
+      </c>
+      <c r="B271" s="7">
+        <v>2</v>
+      </c>
+      <c r="C271" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="7">
+        <v>1</v>
+      </c>
+      <c r="B272" s="7">
+        <v>1</v>
+      </c>
+      <c r="C272" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="7">
+        <v>0</v>
+      </c>
+      <c r="B273" s="7">
+        <v>2</v>
+      </c>
+      <c r="C273" s="7">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Talent and Weapon Level-Up Material Drops/data/talent_weapon_drops.xlsx
+++ b/Talent and Weapon Level-Up Material Drops/data/talent_weapon_drops.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin_Impact/Talent and Weapon Level-Up Material Drops/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_CE1867A46E303FE0C6ADEEED3574CB5597D34A7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9292C031-55EE-4549-90E1-C8F6029C30D6}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_CE1867A46E303FE0C6ADEEED3574CB5597D34A7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDCC8C70-C507-7547-8953-92561127A5BA}"/>
   <bookViews>
-    <workbookView xWindow="492" yWindow="0" windowWidth="19764" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1068" windowWidth="19764" windowHeight="11172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Talent Drop Data" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Talent Drop Data'!$A$1:$C$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Weapon Drop Data'!$A$1:$D$52</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -411,21 +413,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C273"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B278" sqref="B278"/>
+      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.609375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.859375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -436,7 +438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -447,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -458,7 +460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -469,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -480,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -491,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -502,7 +504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -513,7 +515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -524,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -535,7 +537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -546,7 +548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -557,7 +559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -568,7 +570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -579,7 +581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -590,7 +592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -601,7 +603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -612,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -623,7 +625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -634,7 +636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -645,7 +647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -656,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -667,7 +669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -678,7 +680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -689,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -700,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -711,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -722,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -733,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -744,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -755,7 +757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -766,7 +768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -777,7 +779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -788,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -799,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -810,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -821,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
@@ -832,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -843,7 +845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -854,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -865,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -876,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0</v>
       </c>
@@ -887,7 +889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -898,7 +900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -909,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -920,7 +922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
@@ -931,7 +933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
@@ -942,7 +944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -953,7 +955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -964,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
@@ -975,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0</v>
       </c>
@@ -986,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>
@@ -997,7 +999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1008,7 +1010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -1030,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
@@ -1052,7 +1054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0</v>
       </c>
@@ -1074,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0</v>
       </c>
@@ -1085,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1096,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1107,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0</v>
       </c>
@@ -1140,7 +1142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0</v>
       </c>
@@ -1151,7 +1153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0</v>
       </c>
@@ -1162,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0</v>
       </c>
@@ -1195,7 +1197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0</v>
       </c>
@@ -1206,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0</v>
       </c>
@@ -1228,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0</v>
       </c>
@@ -1250,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -1261,7 +1263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0</v>
       </c>
@@ -1272,7 +1274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0</v>
       </c>
@@ -1283,7 +1285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0</v>
       </c>
@@ -1294,7 +1296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -1316,7 +1318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>2</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0</v>
       </c>
@@ -1338,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0</v>
       </c>
@@ -1382,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2</v>
       </c>
@@ -1393,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0</v>
       </c>
@@ -1404,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0</v>
       </c>
@@ -1426,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0</v>
       </c>
@@ -1448,7 +1450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0</v>
       </c>
@@ -1470,7 +1472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -1492,7 +1494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0</v>
       </c>
@@ -1503,7 +1505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0</v>
       </c>
@@ -1514,7 +1516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0</v>
       </c>
@@ -1525,7 +1527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0</v>
       </c>
@@ -1536,7 +1538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0</v>
       </c>
@@ -1547,7 +1549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0</v>
       </c>
@@ -1558,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0</v>
       </c>
@@ -1580,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0</v>
       </c>
@@ -1591,7 +1593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -1613,7 +1615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0</v>
       </c>
@@ -1646,7 +1648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0</v>
       </c>
@@ -1657,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0</v>
       </c>
@@ -1668,7 +1670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0</v>
       </c>
@@ -1679,7 +1681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0</v>
       </c>
@@ -1690,7 +1692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0</v>
       </c>
@@ -1712,7 +1714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0</v>
       </c>
@@ -1723,7 +1725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1</v>
       </c>
@@ -1734,7 +1736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0</v>
       </c>
@@ -1756,7 +1758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -1767,7 +1769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0</v>
       </c>
@@ -1778,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0</v>
       </c>
@@ -1789,7 +1791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0</v>
       </c>
@@ -1800,7 +1802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1</v>
       </c>
@@ -1811,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1</v>
       </c>
@@ -1822,7 +1824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1</v>
       </c>
@@ -1833,7 +1835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1</v>
       </c>
@@ -1844,7 +1846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0</v>
       </c>
@@ -1855,7 +1857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0</v>
       </c>
@@ -1866,7 +1868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0</v>
       </c>
@@ -1877,7 +1879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0</v>
       </c>
@@ -1888,7 +1890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0</v>
       </c>
@@ -1899,7 +1901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0</v>
       </c>
@@ -1921,7 +1923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0</v>
       </c>
@@ -1954,7 +1956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1</v>
       </c>
@@ -1965,7 +1967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0</v>
       </c>
@@ -1976,7 +1978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0</v>
       </c>
@@ -1987,7 +1989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0</v>
       </c>
@@ -2009,7 +2011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1</v>
       </c>
@@ -2020,7 +2022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0</v>
       </c>
@@ -2042,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0</v>
       </c>
@@ -2064,7 +2066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0</v>
       </c>
@@ -2075,7 +2077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0</v>
       </c>
@@ -2086,7 +2088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>0</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>0</v>
       </c>
@@ -2108,7 +2110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1</v>
       </c>
@@ -2119,7 +2121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0</v>
       </c>
@@ -2130,7 +2132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>0</v>
       </c>
@@ -2141,7 +2143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>0</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>0</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>0</v>
       </c>
@@ -2174,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>0</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>0</v>
       </c>
@@ -2196,7 +2198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0</v>
       </c>
@@ -2207,7 +2209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -2218,7 +2220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>0</v>
       </c>
@@ -2229,7 +2231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>0</v>
       </c>
@@ -2240,7 +2242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>0</v>
       </c>
@@ -2251,7 +2253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>0</v>
       </c>
@@ -2262,7 +2264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>0</v>
       </c>
@@ -2273,7 +2275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>0</v>
       </c>
@@ -2284,7 +2286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>0</v>
       </c>
@@ -2295,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>0</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>0</v>
       </c>
@@ -2317,7 +2319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>0</v>
       </c>
@@ -2328,7 +2330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>0</v>
       </c>
@@ -2339,7 +2341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>0</v>
       </c>
@@ -2350,7 +2352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>0</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>0</v>
       </c>
@@ -2372,7 +2374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>0</v>
       </c>
@@ -2383,7 +2385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>0</v>
       </c>
@@ -2394,7 +2396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>0</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>0</v>
       </c>
@@ -2416,7 +2418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>0</v>
       </c>
@@ -2427,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>0</v>
       </c>
@@ -2438,7 +2440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>0</v>
       </c>
@@ -2449,7 +2451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>0</v>
       </c>
@@ -2460,7 +2462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -2471,7 +2473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>0</v>
       </c>
@@ -2482,7 +2484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>0</v>
       </c>
@@ -2493,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>0</v>
       </c>
@@ -2504,7 +2506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>0</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>0</v>
       </c>
@@ -2537,7 +2539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>0</v>
       </c>
@@ -2548,7 +2550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>0</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>0</v>
       </c>
@@ -2570,7 +2572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>0</v>
       </c>
@@ -2581,7 +2583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
@@ -2592,7 +2594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>0</v>
       </c>
@@ -2603,7 +2605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>0</v>
       </c>
@@ -2614,7 +2616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>0</v>
       </c>
@@ -2625,7 +2627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>0</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
@@ -2647,7 +2649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>0</v>
       </c>
@@ -2658,7 +2660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>0</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>0</v>
       </c>
@@ -2680,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>0</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1</v>
       </c>
@@ -2702,7 +2704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>0</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>0</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>0</v>
       </c>
@@ -2735,7 +2737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>0</v>
       </c>
@@ -2757,7 +2759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>0</v>
       </c>
@@ -2768,7 +2770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>0</v>
       </c>
@@ -2779,7 +2781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>0</v>
       </c>
@@ -2790,7 +2792,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>0</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>0</v>
       </c>
@@ -2812,7 +2814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>0</v>
       </c>
@@ -2823,7 +2825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>0</v>
       </c>
@@ -2834,7 +2836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>0</v>
       </c>
@@ -2845,7 +2847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>0</v>
       </c>
@@ -2856,7 +2858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>0</v>
       </c>
@@ -2867,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>1</v>
       </c>
@@ -2878,7 +2880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>0</v>
       </c>
@@ -2889,7 +2891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>0</v>
       </c>
@@ -2900,7 +2902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>0</v>
       </c>
@@ -2911,7 +2913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>0</v>
       </c>
@@ -2922,7 +2924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>0</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>0</v>
       </c>
@@ -2944,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1</v>
       </c>
@@ -2955,7 +2957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>0</v>
       </c>
@@ -2966,7 +2968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>1</v>
       </c>
@@ -2977,7 +2979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>1</v>
       </c>
@@ -2988,7 +2990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>1</v>
       </c>
@@ -2999,7 +3001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>1</v>
       </c>
@@ -3010,7 +3012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>0</v>
       </c>
@@ -3021,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>0</v>
       </c>
@@ -3032,7 +3034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>0</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>0</v>
       </c>
@@ -3054,7 +3056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>0</v>
       </c>
@@ -3065,7 +3067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>0</v>
       </c>
@@ -3076,7 +3078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>0</v>
       </c>
@@ -3087,7 +3089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>0</v>
       </c>
@@ -3098,7 +3100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>0</v>
       </c>
@@ -3109,7 +3111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>0</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>0</v>
       </c>
@@ -3131,7 +3133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>0</v>
       </c>
@@ -3142,7 +3144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>0</v>
       </c>
@@ -3153,7 +3155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>0</v>
       </c>
@@ -3164,7 +3166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>0</v>
       </c>
@@ -3175,7 +3177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>0</v>
       </c>
@@ -3186,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>0</v>
       </c>
@@ -3197,7 +3199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>0</v>
       </c>
@@ -3208,7 +3210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>0</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6">
         <v>0</v>
       </c>
@@ -3230,7 +3232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="6">
         <v>1</v>
       </c>
@@ -3241,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="6">
         <v>0</v>
       </c>
@@ -3252,7 +3254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="6">
         <v>1</v>
       </c>
@@ -3263,7 +3265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="6">
         <v>0</v>
       </c>
@@ -3274,7 +3276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="6">
         <v>0</v>
       </c>
@@ -3285,7 +3287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="6">
         <v>0</v>
       </c>
@@ -3296,7 +3298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="6">
         <v>0</v>
       </c>
@@ -3307,7 +3309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6">
         <v>0</v>
       </c>
@@ -3318,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="6">
         <v>0</v>
       </c>
@@ -3329,7 +3331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="6">
         <v>0</v>
       </c>
@@ -3340,7 +3342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="6">
         <v>0</v>
       </c>
@@ -3351,7 +3353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="6">
         <v>0</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6">
         <v>0</v>
       </c>
@@ -3373,7 +3375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="6">
         <v>0</v>
       </c>
@@ -3384,7 +3386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6">
         <v>0</v>
       </c>
@@ -3395,7 +3397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="7">
         <v>0</v>
       </c>
@@ -3406,7 +3408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="7">
         <v>1</v>
       </c>
@@ -3417,7 +3419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="7">
         <v>0</v>
       </c>
@@ -3425,6 +3427,314 @@
         <v>2</v>
       </c>
       <c r="C273" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="7">
+        <v>2</v>
+      </c>
+      <c r="B274" s="7">
+        <v>0</v>
+      </c>
+      <c r="C274" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="7">
+        <v>0</v>
+      </c>
+      <c r="B275" s="7">
+        <v>2</v>
+      </c>
+      <c r="C275" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="7">
+        <v>0</v>
+      </c>
+      <c r="B276" s="7">
+        <v>3</v>
+      </c>
+      <c r="C276" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="7">
+        <v>0</v>
+      </c>
+      <c r="B277" s="7">
+        <v>2</v>
+      </c>
+      <c r="C277" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="6">
+        <v>0</v>
+      </c>
+      <c r="B278" s="6">
+        <v>2</v>
+      </c>
+      <c r="C278" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="7">
+        <v>0</v>
+      </c>
+      <c r="B279" s="7">
+        <v>3</v>
+      </c>
+      <c r="C279" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="7">
+        <v>0</v>
+      </c>
+      <c r="B280" s="7">
+        <v>3</v>
+      </c>
+      <c r="C280" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="6">
+        <v>0</v>
+      </c>
+      <c r="B281" s="6">
+        <v>2</v>
+      </c>
+      <c r="C281" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="7">
+        <v>0</v>
+      </c>
+      <c r="B282" s="7">
+        <v>2</v>
+      </c>
+      <c r="C282" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="6">
+        <v>1</v>
+      </c>
+      <c r="B283" s="6">
+        <v>1</v>
+      </c>
+      <c r="C283" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="6">
+        <v>0</v>
+      </c>
+      <c r="B284" s="6">
+        <v>2</v>
+      </c>
+      <c r="C284" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="6">
+        <v>0</v>
+      </c>
+      <c r="B285" s="6">
+        <v>2</v>
+      </c>
+      <c r="C285" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="6">
+        <v>1</v>
+      </c>
+      <c r="B286" s="6">
+        <v>1</v>
+      </c>
+      <c r="C286" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="6">
+        <v>0</v>
+      </c>
+      <c r="B287" s="6">
+        <v>2</v>
+      </c>
+      <c r="C287" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="6">
+        <v>0</v>
+      </c>
+      <c r="B288" s="6">
+        <v>2</v>
+      </c>
+      <c r="C288" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="6">
+        <v>0</v>
+      </c>
+      <c r="B289" s="6">
+        <v>3</v>
+      </c>
+      <c r="C289" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="6">
+        <v>0</v>
+      </c>
+      <c r="B290" s="6">
+        <v>2</v>
+      </c>
+      <c r="C290" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="6">
+        <v>0</v>
+      </c>
+      <c r="B291" s="6">
+        <v>3</v>
+      </c>
+      <c r="C291" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="6">
+        <v>0</v>
+      </c>
+      <c r="B292" s="6">
+        <v>2</v>
+      </c>
+      <c r="C292" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="6">
+        <v>0</v>
+      </c>
+      <c r="B293" s="6">
+        <v>2</v>
+      </c>
+      <c r="C293" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="6">
+        <v>0</v>
+      </c>
+      <c r="B294" s="6">
+        <v>2</v>
+      </c>
+      <c r="C294" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="7">
+        <v>0</v>
+      </c>
+      <c r="B295" s="7">
+        <v>2</v>
+      </c>
+      <c r="C295" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="7">
+        <v>0</v>
+      </c>
+      <c r="B296" s="7">
+        <v>2</v>
+      </c>
+      <c r="C296" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="7">
+        <v>0</v>
+      </c>
+      <c r="B297" s="7">
+        <v>3</v>
+      </c>
+      <c r="C297" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="6">
+        <v>0</v>
+      </c>
+      <c r="B298" s="6">
+        <v>2</v>
+      </c>
+      <c r="C298" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="7">
+        <v>0</v>
+      </c>
+      <c r="B299" s="7">
+        <v>3</v>
+      </c>
+      <c r="C299" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="6">
+        <v>0</v>
+      </c>
+      <c r="B300" s="6">
+        <v>3</v>
+      </c>
+      <c r="C300" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="6">
+        <v>2</v>
+      </c>
+      <c r="B301" s="6">
+        <v>0</v>
+      </c>
+      <c r="C301" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3444,15 +3754,15 @@
       <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.12890625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.609375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.859375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.203125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -3466,7 +3776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3480,7 +3790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -3494,7 +3804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -3508,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -3522,7 +3832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -3536,7 +3846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -3550,7 +3860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -3564,7 +3874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -3578,7 +3888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3592,7 +3902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -3606,7 +3916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -3620,7 +3930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -3634,7 +3944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -3648,7 +3958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -3662,7 +3972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -3676,7 +3986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -3690,7 +4000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3704,7 +4014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
@@ -3718,7 +4028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
@@ -3732,7 +4042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
@@ -3746,7 +4056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
@@ -3760,7 +4070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -3774,7 +4084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -3788,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -3802,7 +4112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -3816,7 +4126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3830,7 +4140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3844,7 +4154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -3858,7 +4168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -3872,7 +4182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -3886,7 +4196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -3900,7 +4210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3914,7 +4224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3928,7 +4238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3942,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3956,7 +4266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3970,7 +4280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -3984,7 +4294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
@@ -3998,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
@@ -4012,7 +4322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
@@ -4026,7 +4336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0</v>
       </c>
@@ -4040,7 +4350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
@@ -4054,7 +4364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0</v>
       </c>
@@ -4068,7 +4378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
@@ -4082,7 +4392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
@@ -4096,7 +4406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
@@ -4110,7 +4420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
@@ -4124,7 +4434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
@@ -4138,7 +4448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
@@ -4152,7 +4462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0</v>
       </c>
@@ -4166,7 +4476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>

--- a/Talent and Weapon Level-Up Material Drops/data/talent_weapon_drops.xlsx
+++ b/Talent and Weapon Level-Up Material Drops/data/talent_weapon_drops.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f702fcbf27982aa9/GitHub/Genshin_Impact/Talent and Weapon Level-Up Material Drops/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{CD0382BC-D8D4-4770-A266-CBDE5D4DBACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0083B098-3F28-429C-9323-832BEB08F273}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{CD0382BC-D8D4-4770-A266-CBDE5D4DBACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1D621E0-B1E9-4059-8808-8A74FC66AE43}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,11 +431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C407"/>
+  <dimension ref="A1:C427"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A407" sqref="A407:C407"/>
+      <selection pane="bottomLeft" activeCell="E421" sqref="E421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4823,7 +4823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="9">
         <v>0</v>
       </c>
@@ -4834,7 +4834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="9">
         <v>0</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="9">
         <v>0</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="9">
         <v>0</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="9">
         <v>0</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="9">
         <v>0</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="9">
         <v>0</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="9">
         <v>0</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:3" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="9">
         <v>0</v>
       </c>
@@ -4922,6 +4922,136 @@
         <v>2</v>
       </c>
     </row>
+    <row r="408" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="9">
+        <v>0</v>
+      </c>
+      <c r="B408" s="9">
+        <v>3</v>
+      </c>
+      <c r="C408" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="9">
+        <v>0</v>
+      </c>
+      <c r="B409" s="9">
+        <v>2</v>
+      </c>
+      <c r="C409" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="9">
+        <v>0</v>
+      </c>
+      <c r="B410" s="9">
+        <v>2</v>
+      </c>
+      <c r="C410" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="9">
+        <v>0</v>
+      </c>
+      <c r="B411" s="9">
+        <v>2</v>
+      </c>
+      <c r="C411" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="9">
+        <v>1</v>
+      </c>
+      <c r="B412" s="9">
+        <v>1</v>
+      </c>
+      <c r="C412" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="9">
+        <v>0</v>
+      </c>
+      <c r="B413" s="9">
+        <v>2</v>
+      </c>
+      <c r="C413" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="9">
+        <v>1</v>
+      </c>
+      <c r="B414" s="9">
+        <v>1</v>
+      </c>
+      <c r="C414" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="9">
+        <v>0</v>
+      </c>
+      <c r="B415" s="9">
+        <v>2</v>
+      </c>
+      <c r="C415" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="9">
+        <v>0</v>
+      </c>
+      <c r="B416" s="9">
+        <v>2</v>
+      </c>
+      <c r="C416" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="6">
+        <v>0</v>
+      </c>
+      <c r="B417" s="6">
+        <v>2</v>
+      </c>
+      <c r="C417" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="6">
+        <v>0</v>
+      </c>
+      <c r="B418" s="6">
+        <v>2</v>
+      </c>
+      <c r="C418" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="420" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="421" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="422" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="423" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="424" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="425" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="426" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="427" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
